--- a/uploaded.xlsx
+++ b/uploaded.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\январь 2024\22 июня\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113AFAE1-777D-4A36-8A00-31C6097C222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="435" windowWidth="11265" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="435" windowWidth="11265" windowHeight="15015"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">Worksheet!$F$921</definedName>
   </definedNames>
-  <calcPr calcId="191029" forceFullCalc="1"/>
+  <calcPr calcId="144525" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="214">
   <si>
     <t>KINOTEATR</t>
   </si>
@@ -673,12 +667,15 @@
   </si>
   <si>
     <t>Football_60_IYUN­_157</t>
+  </si>
+  <si>
+    <t>Pepsi_ZERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,9 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,6 +784,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,11 +1091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,39 +1104,39 @@
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1153,24 +1150,24 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>21430</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>20652</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
+      <c r="F8" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1183,31 +1180,31 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>21430</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>20588</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>20651</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1221,87 +1218,87 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>21620</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>20957</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>21420</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>21431</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>21086</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>20874</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>20589</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>20815</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>20241</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>21580</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1315,186 +1312,186 @@
       <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>21616</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>21431</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>20875</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>20340</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>20690</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>17578</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>21361</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>17472</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>17251</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>20955</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>21083</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>20588</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>21457</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>20241</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>21607</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>20816</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>21521</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>21533</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>21563</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>20181</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>21482</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>20651</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1508,135 +1505,135 @@
       <c r="D55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>21435</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>21421</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>20690</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>21616</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>20815</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>20619</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>18729</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>21362</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <v>20383</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>20588</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>20955</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>20181</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>21378</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>19964</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <v>17387</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>17472</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1650,253 +1647,253 @@
       <c r="D74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <v>20816</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <v>21378</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="7">
+      <c r="E77" s="6">
         <v>20690</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="7">
+      <c r="E78" s="6">
         <v>19885</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="7">
+      <c r="E79" s="6">
         <v>21434</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="7">
+      <c r="E80" s="6">
         <v>21563</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="7">
+      <c r="E81" s="6">
         <v>20957</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="7">
+      <c r="E82" s="6">
         <v>21616</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="7">
+      <c r="E83" s="6">
         <v>21361</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="7">
+      <c r="E84" s="6">
         <v>20340</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="7">
+      <c r="E85" s="6">
         <v>21457</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <v>19531</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="7">
+      <c r="E87" s="6">
         <v>20864</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="7">
+      <c r="E88" s="6">
         <v>20803</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="7">
+      <c r="E89" s="6">
         <v>21525</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <v>20708</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="7">
+      <c r="E91" s="6">
         <v>20385</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>20588</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <v>21539</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <v>20181</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <v>20917</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <v>20311</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="7">
+      <c r="E97" s="6">
         <v>21626</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="7">
+      <c r="E98" s="6">
         <v>20241</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <v>17472</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="7"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="7"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="7"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="7"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E104" s="7"/>
-      <c r="F104" s="10" t="s">
+      <c r="E104" s="6"/>
+      <c r="F104" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E105" s="8">
+      <c r="E105" s="7">
         <v>50007</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="7"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E107" s="7"/>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E108" s="7"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="7"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E110" s="7"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E111" s="7"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
@@ -1908,20 +1905,20 @@
       <c r="D112" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E113" s="8">
+      <c r="E113" s="7">
         <v>50006</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="7"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
@@ -1933,175 +1930,175 @@
       <c r="D117" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E118" s="7">
+      <c r="E118" s="6">
         <v>20957</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E119" s="7">
+      <c r="E119" s="6">
         <v>17387</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E120" s="7">
+      <c r="E120" s="6">
         <v>21495</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E121" s="7">
+      <c r="E121" s="6">
         <v>21435</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E122" s="7">
+      <c r="E122" s="6">
         <v>21626</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="7">
+      <c r="E123" s="6">
         <v>21434</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E124" s="7">
+      <c r="E124" s="6">
         <v>21616</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E125" s="7">
+      <c r="E125" s="6">
         <v>20917</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E126" s="7">
+      <c r="E126" s="6">
         <v>20619</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="7">
+      <c r="E127" s="6">
         <v>20089</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="7">
+      <c r="E128" s="6">
         <v>21362</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="7">
+      <c r="E129" s="6">
         <v>20708</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E130" s="7">
+      <c r="E130" s="6">
         <v>20589</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E131" s="7">
+      <c r="E131" s="6">
         <v>21029</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="7">
+      <c r="E132" s="6">
         <v>21533</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="7">
+      <c r="E133" s="6">
         <v>20181</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="7">
+      <c r="E134" s="6">
         <v>21300</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E135" s="7">
+      <c r="E135" s="6">
         <v>20803</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="7">
+      <c r="E136" s="6">
         <v>19964</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="7">
+      <c r="E137" s="6">
         <v>19953</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E138" s="7">
+      <c r="E138" s="6">
         <v>20690</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2115,223 +2112,223 @@
       <c r="D141" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E142" s="7">
+      <c r="E142" s="6">
         <v>21434</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="7">
+      <c r="E143" s="6">
         <v>21300</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="7">
+      <c r="E144" s="6">
         <v>21378</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E145" s="7">
+      <c r="E145" s="6">
         <v>20814</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E146" s="7">
+      <c r="E146" s="6">
         <v>21626</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147" s="7">
+      <c r="E147" s="6">
         <v>17251</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E148" s="7">
+      <c r="E148" s="6">
         <v>20241</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149" s="7">
+      <c r="E149" s="6">
         <v>21616</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150" s="7">
+      <c r="E150" s="6">
         <v>20917</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="151" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E151" s="7">
+      <c r="E151" s="6">
         <v>21640</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="152" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E152" s="7">
+      <c r="E152" s="6">
         <v>21423</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="153" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E153" s="7">
+      <c r="E153" s="6">
         <v>21457</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E154" s="7">
+      <c r="E154" s="6">
         <v>21422</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="155" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E155" s="7">
+      <c r="E155" s="6">
         <v>21525</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="156" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E156" s="7">
+      <c r="E156" s="6">
         <v>19885</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="157" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E157" s="7">
+      <c r="E157" s="6">
         <v>20864</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="158" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E158" s="7">
+      <c r="E158" s="6">
         <v>20087</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="159" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E159" s="7">
+      <c r="E159" s="6">
         <v>21421</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="160" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E160" s="7">
+      <c r="E160" s="6">
         <v>20708</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E161" s="7">
+      <c r="E161" s="6">
         <v>19531</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E162" s="7">
+      <c r="E162" s="6">
         <v>20589</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F162" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E163" s="7">
+      <c r="E163" s="6">
         <v>20955</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E164" s="7">
+      <c r="E164" s="6">
         <v>21541</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E165" s="7">
+      <c r="E165" s="6">
         <v>20181</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E166" s="7">
+      <c r="E166" s="6">
         <v>20619</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E167" s="7">
+      <c r="E167" s="6">
         <v>20803</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E168" s="7">
+      <c r="E168" s="6">
         <v>17472</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2345,191 +2342,191 @@
       <c r="D171" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E172" s="7">
+      <c r="E172" s="6">
         <v>17355</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E173" s="7">
+      <c r="E173" s="6">
         <v>17251</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E174" s="7">
+      <c r="E174" s="6">
         <v>21363</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E175" s="7">
+      <c r="E175" s="6">
         <v>20803</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E176" s="7">
+      <c r="E176" s="6">
         <v>21305</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="177" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E177" s="7">
+      <c r="E177" s="6">
         <v>20029</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E178" s="7">
+      <c r="E178" s="6">
         <v>20588</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="179" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E179" s="7">
+      <c r="E179" s="6">
         <v>21560</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="180" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E180" s="7">
+      <c r="E180" s="6">
         <v>20669</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E181" s="7">
+      <c r="E181" s="6">
         <v>20876</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="182" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E182" s="7">
+      <c r="E182" s="6">
         <v>20181</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F182" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="183" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E183" s="7">
+      <c r="E183" s="6">
         <v>20690</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="F183" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="184" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E184" s="7">
+      <c r="E184" s="6">
         <v>17280</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F184" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="185" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E185" s="7">
+      <c r="E185" s="6">
         <v>20849</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="F185" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E186" s="7">
+      <c r="E186" s="6">
         <v>17579</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="F186" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="187" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E187" s="7">
+      <c r="E187" s="6">
         <v>21482</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="F187" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="188" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E188" s="7">
+      <c r="E188" s="6">
         <v>21030</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="F188" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="189" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E189" s="7">
+      <c r="E189" s="6">
         <v>20569</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="F189" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E190" s="7">
+      <c r="E190" s="6">
         <v>17251</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="F190" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="191" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E191" s="7">
+      <c r="E191" s="6">
         <v>20339</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F191" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="192" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E192" s="7">
+      <c r="E192" s="6">
         <v>20957</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="F192" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E193" s="7">
+      <c r="E193" s="6">
         <v>21361</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F193" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E194" s="7">
+      <c r="E194" s="6">
         <v>21563</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F194" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2543,210 +2540,210 @@
       <c r="D197" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F197" s="5" t="s">
+      <c r="F197" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E198" s="7">
+      <c r="E198" s="6">
         <v>20651</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="F198" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E199" s="7">
+      <c r="E199" s="6">
         <v>21097</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F199" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="G199" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E200" s="7">
+      <c r="E200" s="6">
         <v>21431</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="F200" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E201" s="7">
+      <c r="E201" s="6">
         <v>17762</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="F201" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E202" s="7">
+      <c r="E202" s="6">
         <v>20088</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F202" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E203" s="7">
+      <c r="E203" s="6">
         <v>21496</v>
       </c>
-      <c r="F203" s="5" t="s">
+      <c r="F203" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E204" s="7">
+      <c r="E204" s="6">
         <v>20955</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="F204" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E205" s="7">
+      <c r="E205" s="6">
         <v>20803</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="F205" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E206" s="7">
+      <c r="E206" s="6">
         <v>21040</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="F206" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E207" s="7">
+      <c r="E207" s="6">
         <v>21157</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F207" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E208" s="7">
+      <c r="E208" s="6">
         <v>21482</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F208" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="209" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E209" s="7">
+      <c r="E209" s="6">
         <v>17284</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="F209" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="210" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E210" s="7">
+      <c r="E210" s="6">
         <v>20589</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F210" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="211" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E211" s="7">
+      <c r="E211" s="6">
         <v>20872</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="F211" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="212" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E212" s="7">
+      <c r="E212" s="6">
         <v>20340</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="F212" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="213" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E213" s="7">
+      <c r="E213" s="6">
         <v>20877</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="F213" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="214" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E214" s="7">
+      <c r="E214" s="6">
         <v>20708</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F214" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="215" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E215" s="7">
+      <c r="E215" s="6">
         <v>20690</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="F215" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="216" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E216" s="7">
+      <c r="E216" s="6">
         <v>20849</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="F216" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="217" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E217" s="7">
+      <c r="E217" s="6">
         <v>21030</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="F217" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="218" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E218" s="7">
+      <c r="E218" s="6">
         <v>21457</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="F218" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="219" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E219" s="7">
+      <c r="E219" s="6">
         <v>20569</v>
       </c>
-      <c r="F219" s="5" t="s">
+      <c r="F219" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="220" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E220" s="7">
+      <c r="E220" s="6">
         <v>20541</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="F220" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="221" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E221" s="7">
+      <c r="E221" s="6">
         <v>21418</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="F221" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="222" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E222" s="7">
+      <c r="E222" s="6">
         <v>20651</v>
       </c>
-      <c r="F222" s="5" t="s">
+      <c r="F222" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2760,191 +2757,191 @@
       <c r="D225" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F225" s="5" t="s">
+      <c r="F225" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E226" s="7">
+      <c r="E226" s="6">
         <v>20815</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="F226" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E227" s="7">
+      <c r="E227" s="6">
         <v>21361</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="F227" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E228" s="7">
+      <c r="E228" s="6">
         <v>20690</v>
       </c>
-      <c r="F228" s="5" t="s">
+      <c r="F228" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E229" s="7">
+      <c r="E229" s="6">
         <v>20900</v>
       </c>
-      <c r="F229" s="5" t="s">
+      <c r="F229" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E230" s="7">
+      <c r="E230" s="6">
         <v>20955</v>
       </c>
-      <c r="F230" s="5" t="s">
+      <c r="F230" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E231" s="7">
+      <c r="E231" s="6">
         <v>19964</v>
       </c>
-      <c r="F231" s="5" t="s">
+      <c r="F231" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E232" s="7">
+      <c r="E232" s="6">
         <v>21626</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="F232" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E233" s="7">
+      <c r="E233" s="6">
         <v>21457</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="F233" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E234" s="7">
+      <c r="E234" s="6">
         <v>20708</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="F234" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E235" s="7">
+      <c r="E235" s="6">
         <v>17284</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="F235" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E236" s="7">
+      <c r="E236" s="6">
         <v>21616</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="F236" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E237" s="7">
+      <c r="E237" s="6">
         <v>20917</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="F237" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E238" s="7">
+      <c r="E238" s="6">
         <v>20589</v>
       </c>
-      <c r="F238" s="5" t="s">
+      <c r="F238" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E239" s="7">
+      <c r="E239" s="6">
         <v>21463</v>
       </c>
-      <c r="F239" s="5" t="s">
+      <c r="F239" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E240" s="7">
+      <c r="E240" s="6">
         <v>21523</v>
       </c>
-      <c r="F240" s="5" t="s">
+      <c r="F240" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E241" s="7">
+      <c r="E241" s="6">
         <v>21378</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="F241" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E242" s="7">
+      <c r="E242" s="6">
         <v>21300</v>
       </c>
-      <c r="F242" s="5" t="s">
+      <c r="F242" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E243" s="7">
+      <c r="E243" s="6">
         <v>21533</v>
       </c>
-      <c r="F243" s="5" t="s">
+      <c r="F243" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E244" s="7">
+      <c r="E244" s="6">
         <v>20181</v>
       </c>
-      <c r="F244" s="5" t="s">
+      <c r="F244" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E245" s="7">
+      <c r="E245" s="6">
         <v>18273</v>
       </c>
-      <c r="F245" s="5" t="s">
+      <c r="F245" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E246" s="7">
+      <c r="E246" s="6">
         <v>19885</v>
       </c>
-      <c r="F246" s="5" t="s">
+      <c r="F246" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E247" s="7">
+      <c r="E247" s="6">
         <v>21640</v>
       </c>
-      <c r="F247" s="5" t="s">
+      <c r="F247" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E248" s="7">
+      <c r="E248" s="6">
         <v>21430</v>
       </c>
-      <c r="F248" s="5" t="s">
+      <c r="F248" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2958,199 +2955,199 @@
       <c r="D251" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F251" s="5" t="s">
+      <c r="F251" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E252" s="7">
+      <c r="E252" s="6">
         <v>21378</v>
       </c>
-      <c r="F252" s="5" t="s">
+      <c r="F252" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E253" s="7">
+      <c r="E253" s="6">
         <v>21029</v>
       </c>
-      <c r="F253" s="5" t="s">
+      <c r="F253" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E254" s="7">
+      <c r="E254" s="6">
         <v>19885</v>
       </c>
-      <c r="F254" s="5" t="s">
+      <c r="F254" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E255" s="7">
+      <c r="E255" s="6">
         <v>20241</v>
       </c>
-      <c r="F255" s="5" t="s">
+      <c r="F255" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E256" s="7">
+      <c r="E256" s="6">
         <v>21420</v>
       </c>
-      <c r="F256" s="5" t="s">
+      <c r="F256" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="257" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E257" s="7">
+      <c r="E257" s="6">
         <v>17284</v>
       </c>
-      <c r="F257" s="5" t="s">
+      <c r="F257" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="258" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E258" s="7">
+      <c r="E258" s="6">
         <v>20589</v>
       </c>
-      <c r="F258" s="5" t="s">
+      <c r="F258" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="259" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E259" s="7">
+      <c r="E259" s="6">
         <v>17387</v>
       </c>
-      <c r="F259" s="5" t="s">
+      <c r="F259" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="260" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E260" s="7">
+      <c r="E260" s="6">
         <v>21495</v>
       </c>
-      <c r="F260" s="5" t="s">
+      <c r="F260" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="261" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E261" s="7">
+      <c r="E261" s="6">
         <v>21626</v>
       </c>
-      <c r="F261" s="5" t="s">
+      <c r="F261" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="262" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E262" s="7">
+      <c r="E262" s="6">
         <v>20917</v>
       </c>
-      <c r="F262" s="5" t="s">
+      <c r="F262" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="263" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E263" s="7">
+      <c r="E263" s="6">
         <v>20089</v>
       </c>
-      <c r="F263" s="5" t="s">
+      <c r="F263" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="264" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E264" s="7">
+      <c r="E264" s="6">
         <v>21422</v>
       </c>
-      <c r="F264" s="5" t="s">
+      <c r="F264" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="265" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E265" s="7">
+      <c r="E265" s="6">
         <v>20652</v>
       </c>
-      <c r="F265" s="5" t="s">
+      <c r="F265" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="266" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E266" s="7">
+      <c r="E266" s="6">
         <v>21423</v>
       </c>
-      <c r="F266" s="5" t="s">
+      <c r="F266" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="267" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E267" s="7">
+      <c r="E267" s="6">
         <v>21563</v>
       </c>
-      <c r="F267" s="5" t="s">
+      <c r="F267" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="268" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E268" s="7">
+      <c r="E268" s="6">
         <v>20619</v>
       </c>
-      <c r="F268" s="5" t="s">
+      <c r="F268" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="269" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E269" s="7">
+      <c r="E269" s="6">
         <v>21535</v>
       </c>
-      <c r="F269" s="5" t="s">
+      <c r="F269" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="270" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E270" s="7">
+      <c r="E270" s="6">
         <v>21463</v>
       </c>
-      <c r="F270" s="5" t="s">
+      <c r="F270" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="271" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E271" s="7">
+      <c r="E271" s="6">
         <v>21305</v>
       </c>
-      <c r="F271" s="5" t="s">
+      <c r="F271" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="272" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E272" s="7">
+      <c r="E272" s="6">
         <v>19531</v>
       </c>
-      <c r="F272" s="5" t="s">
+      <c r="F272" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E273" s="7">
+      <c r="E273" s="6">
         <v>20957</v>
       </c>
-      <c r="F273" s="5" t="s">
+      <c r="F273" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E274" s="7">
+      <c r="E274" s="6">
         <v>21303</v>
       </c>
-      <c r="F274" s="5" t="s">
+      <c r="F274" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E275" s="7">
+      <c r="E275" s="6">
         <v>20814</v>
       </c>
-      <c r="F275" s="5" t="s">
+      <c r="F275" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3164,210 +3161,210 @@
       <c r="D278" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F278" s="5" t="s">
+      <c r="F278" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E279" s="7">
+      <c r="E279" s="6">
         <v>21616</v>
       </c>
-      <c r="F279" s="5" t="s">
+      <c r="F279" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G279" s="5" t="s">
+      <c r="G279" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E280" s="7">
+      <c r="E280" s="6">
         <v>20652</v>
       </c>
-      <c r="F280" s="5" t="s">
+      <c r="F280" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E281" s="7">
+      <c r="E281" s="6">
         <v>19885</v>
       </c>
-      <c r="F281" s="5" t="s">
+      <c r="F281" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E282" s="7">
+      <c r="E282" s="6">
         <v>21430</v>
       </c>
-      <c r="F282" s="5" t="s">
+      <c r="F282" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E283" s="7">
+      <c r="E283" s="6">
         <v>21482</v>
       </c>
-      <c r="F283" s="5" t="s">
+      <c r="F283" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E284" s="7">
+      <c r="E284" s="6">
         <v>20588</v>
       </c>
-      <c r="F284" s="5" t="s">
+      <c r="F284" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E285" s="7">
+      <c r="E285" s="6">
         <v>20873</v>
       </c>
-      <c r="F285" s="5" t="s">
+      <c r="F285" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E286" s="7">
+      <c r="E286" s="6">
         <v>20340</v>
       </c>
-      <c r="F286" s="5" t="s">
+      <c r="F286" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E287" s="7">
+      <c r="E287" s="6">
         <v>20181</v>
       </c>
-      <c r="F287" s="5" t="s">
+      <c r="F287" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E288" s="7">
+      <c r="E288" s="6">
         <v>20596</v>
       </c>
-      <c r="F288" s="5" t="s">
+      <c r="F288" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="289" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E289" s="7">
+      <c r="E289" s="6">
         <v>20849</v>
       </c>
-      <c r="F289" s="5" t="s">
+      <c r="F289" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="290" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E290" s="7">
+      <c r="E290" s="6">
         <v>17579</v>
       </c>
-      <c r="F290" s="5" t="s">
+      <c r="F290" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="291" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E291" s="7">
+      <c r="E291" s="6">
         <v>21421</v>
       </c>
-      <c r="F291" s="5" t="s">
+      <c r="F291" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="292" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E292" s="7">
+      <c r="E292" s="6">
         <v>21559</v>
       </c>
-      <c r="F292" s="5" t="s">
+      <c r="F292" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="293" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E293" s="7">
+      <c r="E293" s="6">
         <v>17472</v>
       </c>
-      <c r="F293" s="5" t="s">
+      <c r="F293" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="294" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E294" s="7">
+      <c r="E294" s="6">
         <v>17251</v>
       </c>
-      <c r="F294" s="5" t="s">
+      <c r="F294" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="295" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E295" s="7">
+      <c r="E295" s="6">
         <v>21417</v>
       </c>
-      <c r="F295" s="5" t="s">
+      <c r="F295" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="296" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E296" s="7">
+      <c r="E296" s="6">
         <v>17472</v>
       </c>
-      <c r="F296" s="5" t="s">
+      <c r="F296" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="297" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E297" s="7">
+      <c r="E297" s="6">
         <v>21491</v>
       </c>
-      <c r="F297" s="5" t="s">
+      <c r="F297" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="298" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E298" s="7">
+      <c r="E298" s="6">
         <v>21519</v>
       </c>
-      <c r="F298" s="5" t="s">
+      <c r="F298" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="299" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E299" s="7">
+      <c r="E299" s="6">
         <v>20241</v>
       </c>
-      <c r="F299" s="5" t="s">
+      <c r="F299" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="300" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E300" s="7">
+      <c r="E300" s="6">
         <v>20917</v>
       </c>
-      <c r="F300" s="5" t="s">
+      <c r="F300" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="301" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E301" s="7">
+      <c r="E301" s="6">
         <v>20957</v>
       </c>
-      <c r="F301" s="5" t="s">
+      <c r="F301" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="302" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E302" s="7">
+      <c r="E302" s="6">
         <v>18728</v>
       </c>
-      <c r="F302" s="5" t="s">
+      <c r="F302" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="303" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E303" s="7">
+      <c r="E303" s="6">
         <v>21434</v>
       </c>
-      <c r="F303" s="5" t="s">
+      <c r="F303" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3381,237 +3378,237 @@
       <c r="D306" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F306" s="5" t="s">
+      <c r="F306" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E307" s="7">
+      <c r="E307" s="6">
         <v>21305</v>
       </c>
-      <c r="F307" s="5" t="s">
+      <c r="F307" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E308" s="7">
+      <c r="E308" s="6">
         <v>21496</v>
       </c>
-      <c r="F308" s="5" t="s">
+      <c r="F308" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E309" s="7">
+      <c r="E309" s="6">
         <v>20733</v>
       </c>
-      <c r="F309" s="5" t="s">
+      <c r="F309" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E310" s="7">
+      <c r="E310" s="6">
         <v>21300</v>
       </c>
-      <c r="F310" s="5" t="s">
+      <c r="F310" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E311" s="7">
+      <c r="E311" s="6">
         <v>21563</v>
       </c>
-      <c r="F311" s="5" t="s">
+      <c r="F311" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E312" s="7">
+      <c r="E312" s="6">
         <v>19964</v>
       </c>
-      <c r="F312" s="5" t="s">
+      <c r="F312" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E313" s="7">
+      <c r="E313" s="6">
         <v>20917</v>
       </c>
-      <c r="F313" s="5" t="s">
+      <c r="F313" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E314" s="7">
+      <c r="E314" s="6">
         <v>21422</v>
       </c>
-      <c r="F314" s="5" t="s">
+      <c r="F314" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E315" s="7">
+      <c r="E315" s="6">
         <v>21463</v>
       </c>
-      <c r="F315" s="5" t="s">
+      <c r="F315" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E316" s="7">
+      <c r="E316" s="6">
         <v>21457</v>
       </c>
-      <c r="F316" s="5" t="s">
+      <c r="F316" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E317" s="7">
+      <c r="E317" s="6">
         <v>19885</v>
       </c>
-      <c r="F317" s="5" t="s">
+      <c r="F317" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E318" s="7">
+      <c r="E318" s="6">
         <v>20089</v>
       </c>
-      <c r="F318" s="5" t="s">
+      <c r="F318" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E319" s="7">
+      <c r="E319" s="6">
         <v>21421</v>
       </c>
-      <c r="F319" s="5" t="s">
+      <c r="F319" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E320" s="7">
+      <c r="E320" s="6">
         <v>20708</v>
       </c>
-      <c r="F320" s="5" t="s">
+      <c r="F320" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="321" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E321" s="7">
+      <c r="E321" s="6">
         <v>17284</v>
       </c>
-      <c r="F321" s="5" t="s">
+      <c r="F321" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="322" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E322" s="7">
+      <c r="E322" s="6">
         <v>20588</v>
       </c>
-      <c r="F322" s="5" t="s">
+      <c r="F322" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="323" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E323" s="7">
+      <c r="E323" s="6">
         <v>20339</v>
       </c>
-      <c r="F323" s="5" t="s">
+      <c r="F323" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="324" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E324" s="7">
+      <c r="E324" s="6">
         <v>21438</v>
       </c>
-      <c r="F324" s="5" t="s">
+      <c r="F324" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="325" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E325" s="7">
+      <c r="E325" s="6">
         <v>20181</v>
       </c>
-      <c r="F325" s="5" t="s">
+      <c r="F325" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="326" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E326" s="7">
+      <c r="E326" s="6">
         <v>20955</v>
       </c>
-      <c r="F326" s="5" t="s">
+      <c r="F326" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="327" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E327" s="7">
+      <c r="E327" s="6">
         <v>21521</v>
       </c>
-      <c r="F327" s="5" t="s">
+      <c r="F327" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="328" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E328" s="7">
+      <c r="E328" s="6">
         <v>21303</v>
       </c>
-      <c r="F328" s="5" t="s">
+      <c r="F328" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="329" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E329" s="7">
+      <c r="E329" s="6">
         <v>20814</v>
       </c>
-      <c r="F329" s="5" t="s">
+      <c r="F329" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="330" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E330" s="7"/>
+      <c r="E330" s="6"/>
     </row>
     <row r="331" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E331" s="7"/>
+      <c r="E331" s="6"/>
     </row>
     <row r="332" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E332" s="7"/>
+      <c r="E332" s="6"/>
     </row>
     <row r="333" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E333" s="7"/>
+      <c r="E333" s="6"/>
     </row>
     <row r="334" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E334" s="7"/>
+      <c r="E334" s="6"/>
     </row>
     <row r="335" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E335" s="7"/>
-      <c r="F335" s="10" t="s">
+      <c r="E335" s="6"/>
+      <c r="F335" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="336" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E336" s="8">
+      <c r="E336" s="7">
         <v>50006</v>
       </c>
-      <c r="F336" s="9" t="s">
+      <c r="F336" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E337" s="7"/>
+      <c r="E337" s="6"/>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E338" s="7"/>
+      <c r="E338" s="6"/>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E339" s="7"/>
+      <c r="E339" s="6"/>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E340" s="7"/>
+      <c r="E340" s="6"/>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E341" s="7"/>
+      <c r="E341" s="6"/>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
@@ -3623,20 +3620,20 @@
       <c r="D342" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F342" s="5" t="s">
+      <c r="F342" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="343" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E343" s="8">
+      <c r="E343" s="7">
         <v>50007</v>
       </c>
-      <c r="F343" s="9" t="s">
+      <c r="F343" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E344" s="7"/>
+      <c r="E344" s="6"/>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
@@ -3648,175 +3645,175 @@
       <c r="D347" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F347" s="5" t="s">
+      <c r="F347" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E348" s="7">
+      <c r="E348" s="6">
         <v>20815</v>
       </c>
-      <c r="F348" s="5" t="s">
+      <c r="F348" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E349" s="7">
+      <c r="E349" s="6">
         <v>21378</v>
       </c>
-      <c r="F349" s="5" t="s">
+      <c r="F349" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E350" s="7">
+      <c r="E350" s="6">
         <v>17472</v>
       </c>
-      <c r="F350" s="5" t="s">
+      <c r="F350" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E351" s="7">
+      <c r="E351" s="6">
         <v>21457</v>
       </c>
-      <c r="F351" s="5" t="s">
+      <c r="F351" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E352" s="7">
+      <c r="E352" s="6">
         <v>20957</v>
       </c>
-      <c r="F352" s="5" t="s">
+      <c r="F352" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="353" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E353" s="7">
+      <c r="E353" s="6">
         <v>21616</v>
       </c>
-      <c r="F353" s="5" t="s">
+      <c r="F353" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="354" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E354" s="7">
+      <c r="E354" s="6">
         <v>20589</v>
       </c>
-      <c r="F354" s="5" t="s">
+      <c r="F354" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="355" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E355" s="7">
+      <c r="E355" s="6">
         <v>21300</v>
       </c>
-      <c r="F355" s="5" t="s">
+      <c r="F355" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="356" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E356" s="7">
+      <c r="E356" s="6">
         <v>20388</v>
       </c>
-      <c r="F356" s="5" t="s">
+      <c r="F356" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="357" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E357" s="7">
+      <c r="E357" s="6">
         <v>21439</v>
       </c>
-      <c r="F357" s="5" t="s">
+      <c r="F357" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="358" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E358" s="7">
+      <c r="E358" s="6">
         <v>19885</v>
       </c>
-      <c r="F358" s="5" t="s">
+      <c r="F358" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="359" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E359" s="7">
+      <c r="E359" s="6">
         <v>21362</v>
       </c>
-      <c r="F359" s="5" t="s">
+      <c r="F359" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="360" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E360" s="7">
+      <c r="E360" s="6">
         <v>19531</v>
       </c>
-      <c r="F360" s="5" t="s">
+      <c r="F360" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="361" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E361" s="7">
+      <c r="E361" s="6">
         <v>21535</v>
       </c>
-      <c r="F361" s="5" t="s">
+      <c r="F361" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="362" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E362" s="7">
+      <c r="E362" s="6">
         <v>20181</v>
       </c>
-      <c r="F362" s="5" t="s">
+      <c r="F362" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="363" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E363" s="7">
+      <c r="E363" s="6">
         <v>18273</v>
       </c>
-      <c r="F363" s="5" t="s">
+      <c r="F363" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="364" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E364" s="7">
+      <c r="E364" s="6">
         <v>21463</v>
       </c>
-      <c r="F364" s="5" t="s">
+      <c r="F364" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="365" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E365" s="7">
+      <c r="E365" s="6">
         <v>20086</v>
       </c>
-      <c r="F365" s="5" t="s">
+      <c r="F365" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="366" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E366" s="7">
+      <c r="E366" s="6">
         <v>20496</v>
       </c>
-      <c r="F366" s="5" t="s">
+      <c r="F366" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="367" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E367" s="7">
+      <c r="E367" s="6">
         <v>20708</v>
       </c>
-      <c r="F367" s="5" t="s">
+      <c r="F367" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="368" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E368" s="7">
+      <c r="E368" s="6">
         <v>20690</v>
       </c>
-      <c r="F368" s="5" t="s">
+      <c r="F368" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3830,202 +3827,202 @@
       <c r="D371" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F371" s="5" t="s">
+      <c r="F371" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E372" s="7">
+      <c r="E372" s="6">
         <v>21616</v>
       </c>
-      <c r="F372" s="5" t="s">
+      <c r="F372" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G372" s="5" t="s">
+      <c r="G372" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E373" s="7">
+      <c r="E373" s="6">
         <v>21484</v>
       </c>
-      <c r="F373" s="5" t="s">
+      <c r="F373" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E374" s="7">
+      <c r="E374" s="6">
         <v>20904</v>
       </c>
-      <c r="F374" s="5" t="s">
+      <c r="F374" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E375" s="7">
+      <c r="E375" s="6">
         <v>20957</v>
       </c>
-      <c r="F375" s="5" t="s">
+      <c r="F375" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E376" s="7">
+      <c r="E376" s="6">
         <v>20541</v>
       </c>
-      <c r="F376" s="5" t="s">
+      <c r="F376" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E377" s="7">
+      <c r="E377" s="6">
         <v>21482</v>
       </c>
-      <c r="F377" s="5" t="s">
+      <c r="F377" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E378" s="7">
+      <c r="E378" s="6">
         <v>21438</v>
       </c>
-      <c r="F378" s="5" t="s">
+      <c r="F378" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E379" s="7">
+      <c r="E379" s="6">
         <v>21363</v>
       </c>
-      <c r="F379" s="5" t="s">
+      <c r="F379" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E380" s="7">
+      <c r="E380" s="6">
         <v>21434</v>
       </c>
-      <c r="F380" s="5" t="s">
+      <c r="F380" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E381" s="7">
+      <c r="E381" s="6">
         <v>21158</v>
       </c>
-      <c r="F381" s="5" t="s">
+      <c r="F381" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E382" s="7">
+      <c r="E382" s="6">
         <v>20589</v>
       </c>
-      <c r="F382" s="5" t="s">
+      <c r="F382" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E383" s="7">
+      <c r="E383" s="6">
         <v>20874</v>
       </c>
-      <c r="F383" s="5" t="s">
+      <c r="F383" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E384" s="7">
+      <c r="E384" s="6">
         <v>20181</v>
       </c>
-      <c r="F384" s="5" t="s">
+      <c r="F384" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E385" s="7">
+      <c r="E385" s="6">
         <v>21362</v>
       </c>
-      <c r="F385" s="5" t="s">
+      <c r="F385" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E386" s="7">
+      <c r="E386" s="6">
         <v>17472</v>
       </c>
-      <c r="F386" s="5" t="s">
+      <c r="F386" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E387" s="7">
+      <c r="E387" s="6">
         <v>21090</v>
       </c>
-      <c r="F387" s="5" t="s">
+      <c r="F387" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="388" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E388" s="7">
+      <c r="E388" s="6">
         <v>18730</v>
       </c>
-      <c r="F388" s="5" t="s">
+      <c r="F388" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="389" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E389" s="7">
+      <c r="E389" s="6">
         <v>21482</v>
       </c>
-      <c r="F389" s="5" t="s">
+      <c r="F389" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="390" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E390" s="7">
+      <c r="E390" s="6">
         <v>21495</v>
       </c>
-      <c r="F390" s="5" t="s">
+      <c r="F390" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E391" s="7">
+      <c r="E391" s="6">
         <v>21491</v>
       </c>
-      <c r="F391" s="5" t="s">
+      <c r="F391" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="392" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E392" s="7">
+      <c r="E392" s="6">
         <v>17251</v>
       </c>
-      <c r="F392" s="5" t="s">
+      <c r="F392" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="393" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E393" s="7">
+      <c r="E393" s="6">
         <v>21626</v>
       </c>
-      <c r="F393" s="5" t="s">
+      <c r="F393" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="394" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E394" s="7">
+      <c r="E394" s="6">
         <v>20029</v>
       </c>
-      <c r="F394" s="5" t="s">
+      <c r="F394" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="395" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E395" s="7">
+      <c r="E395" s="6">
         <v>20651</v>
       </c>
-      <c r="F395" s="5" t="s">
+      <c r="F395" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4039,199 +4036,199 @@
       <c r="D398" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F398" s="5" t="s">
+      <c r="F398" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="399" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E399" s="7">
+      <c r="E399" s="6">
         <v>19885</v>
       </c>
-      <c r="F399" s="5" t="s">
+      <c r="F399" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="400" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E400" s="7">
+      <c r="E400" s="6">
         <v>21030</v>
       </c>
-      <c r="F400" s="5" t="s">
+      <c r="F400" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="401" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E401" s="7">
+      <c r="E401" s="6">
         <v>21300</v>
       </c>
-      <c r="F401" s="5" t="s">
+      <c r="F401" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="402" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E402" s="7">
+      <c r="E402" s="6">
         <v>20815</v>
       </c>
-      <c r="F402" s="5" t="s">
+      <c r="F402" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="403" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E403" s="7">
+      <c r="E403" s="6">
         <v>21640</v>
       </c>
-      <c r="F403" s="5" t="s">
+      <c r="F403" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="404" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E404" s="7">
+      <c r="E404" s="6">
         <v>20955</v>
       </c>
-      <c r="F404" s="5" t="s">
+      <c r="F404" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="405" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E405" s="7">
+      <c r="E405" s="6">
         <v>20241</v>
       </c>
-      <c r="F405" s="5" t="s">
+      <c r="F405" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="406" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E406" s="7">
+      <c r="E406" s="6">
         <v>20689</v>
       </c>
-      <c r="F406" s="5" t="s">
+      <c r="F406" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="407" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E407" s="7">
+      <c r="E407" s="6">
         <v>20087</v>
       </c>
-      <c r="F407" s="5" t="s">
+      <c r="F407" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="408" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E408" s="7">
+      <c r="E408" s="6">
         <v>17992</v>
       </c>
-      <c r="F408" s="5" t="s">
+      <c r="F408" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="409" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E409" s="7">
+      <c r="E409" s="6">
         <v>21420</v>
       </c>
-      <c r="F409" s="5" t="s">
+      <c r="F409" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="410" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E410" s="7">
+      <c r="E410" s="6">
         <v>20708</v>
       </c>
-      <c r="F410" s="5" t="s">
+      <c r="F410" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="411" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E411" s="7">
+      <c r="E411" s="6">
         <v>17284</v>
       </c>
-      <c r="F411" s="5" t="s">
+      <c r="F411" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="412" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E412" s="7">
+      <c r="E412" s="6">
         <v>21616</v>
       </c>
-      <c r="F412" s="5" t="s">
+      <c r="F412" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="413" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E413" s="7">
+      <c r="E413" s="6">
         <v>20917</v>
       </c>
-      <c r="F413" s="5" t="s">
+      <c r="F413" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="414" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E414" s="7">
+      <c r="E414" s="6">
         <v>20589</v>
       </c>
-      <c r="F414" s="5" t="s">
+      <c r="F414" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="415" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E415" s="7">
+      <c r="E415" s="6">
         <v>21457</v>
       </c>
-      <c r="F415" s="5" t="s">
+      <c r="F415" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="416" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E416" s="7">
+      <c r="E416" s="6">
         <v>20619</v>
       </c>
-      <c r="F416" s="5" t="s">
+      <c r="F416" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="417" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E417" s="7">
+      <c r="E417" s="6">
         <v>17280</v>
       </c>
-      <c r="F417" s="5" t="s">
+      <c r="F417" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E418" s="7">
+      <c r="E418" s="6">
         <v>21598</v>
       </c>
-      <c r="F418" s="5" t="s">
+      <c r="F418" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="419" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E419" s="7">
+      <c r="E419" s="6">
         <v>20181</v>
       </c>
-      <c r="F419" s="5" t="s">
+      <c r="F419" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="420" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E420" s="7">
+      <c r="E420" s="6">
         <v>20089</v>
       </c>
-      <c r="F420" s="5" t="s">
+      <c r="F420" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="421" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E421" s="7">
+      <c r="E421" s="6">
         <v>21417</v>
       </c>
-      <c r="F421" s="5" t="s">
+      <c r="F421" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="422" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E422" s="7">
+      <c r="E422" s="6">
         <v>21431</v>
       </c>
-      <c r="F422" s="5" t="s">
+      <c r="F422" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4245,191 +4242,191 @@
       <c r="D425" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F425" s="5" t="s">
+      <c r="F425" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="426" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E426" s="7">
+      <c r="E426" s="6">
         <v>20957</v>
       </c>
-      <c r="F426" s="5" t="s">
+      <c r="F426" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="427" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E427" s="7">
+      <c r="E427" s="6">
         <v>21495</v>
       </c>
-      <c r="F427" s="5" t="s">
+      <c r="F427" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="428" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E428" s="7">
+      <c r="E428" s="6">
         <v>21491</v>
       </c>
-      <c r="F428" s="5" t="s">
+      <c r="F428" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="429" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E429" s="7">
+      <c r="E429" s="6">
         <v>20899</v>
       </c>
-      <c r="F429" s="5" t="s">
+      <c r="F429" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="430" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E430" s="7">
+      <c r="E430" s="6">
         <v>20815</v>
       </c>
-      <c r="F430" s="5" t="s">
+      <c r="F430" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="431" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E431" s="7">
+      <c r="E431" s="6">
         <v>21626</v>
       </c>
-      <c r="F431" s="5" t="s">
+      <c r="F431" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="432" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E432" s="7">
+      <c r="E432" s="6">
         <v>21435</v>
       </c>
-      <c r="F432" s="5" t="s">
+      <c r="F432" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="433" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E433" s="7">
+      <c r="E433" s="6">
         <v>20708</v>
       </c>
-      <c r="F433" s="5" t="s">
+      <c r="F433" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="434" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E434" s="7">
+      <c r="E434" s="6">
         <v>20690</v>
       </c>
-      <c r="F434" s="5" t="s">
+      <c r="F434" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="435" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E435" s="7">
+      <c r="E435" s="6">
         <v>21616</v>
       </c>
-      <c r="F435" s="5" t="s">
+      <c r="F435" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="436" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E436" s="7">
+      <c r="E436" s="6">
         <v>20588</v>
       </c>
-      <c r="F436" s="5" t="s">
+      <c r="F436" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="437" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E437" s="7">
+      <c r="E437" s="6">
         <v>21463</v>
       </c>
-      <c r="F437" s="5" t="s">
+      <c r="F437" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="438" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E438" s="7">
+      <c r="E438" s="6">
         <v>21361</v>
       </c>
-      <c r="F438" s="5" t="s">
+      <c r="F438" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="439" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E439" s="7">
+      <c r="E439" s="6">
         <v>19531</v>
       </c>
-      <c r="F439" s="5" t="s">
+      <c r="F439" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="440" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E440" s="7">
+      <c r="E440" s="6">
         <v>21535</v>
       </c>
-      <c r="F440" s="5" t="s">
+      <c r="F440" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="441" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E441" s="7">
+      <c r="E441" s="6">
         <v>20181</v>
       </c>
-      <c r="F441" s="5" t="s">
+      <c r="F441" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="442" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E442" s="7">
+      <c r="E442" s="6">
         <v>21305</v>
       </c>
-      <c r="F442" s="5" t="s">
+      <c r="F442" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="443" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E443" s="7">
+      <c r="E443" s="6">
         <v>17387</v>
       </c>
-      <c r="F443" s="5" t="s">
+      <c r="F443" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="444" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E444" s="7">
+      <c r="E444" s="6">
         <v>20241</v>
       </c>
-      <c r="F444" s="5" t="s">
+      <c r="F444" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="445" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E445" s="7">
+      <c r="E445" s="6">
         <v>21457</v>
       </c>
-      <c r="F445" s="5" t="s">
+      <c r="F445" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="446" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E446" s="7">
+      <c r="E446" s="6">
         <v>20086</v>
       </c>
-      <c r="F446" s="5" t="s">
+      <c r="F446" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="447" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E447" s="7">
+      <c r="E447" s="6">
         <v>17284</v>
       </c>
-      <c r="F447" s="5" t="s">
+      <c r="F447" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="448" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E448" s="7">
+      <c r="E448" s="6">
         <v>20814</v>
       </c>
-      <c r="F448" s="5" t="s">
+      <c r="F448" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4443,217 +4440,217 @@
       <c r="D451" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F451" s="5" t="s">
+      <c r="F451" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="452" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E452" s="7">
+      <c r="E452" s="6">
         <v>19904</v>
       </c>
-      <c r="F452" s="5" t="s">
+      <c r="F452" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="453" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E453" s="7">
+      <c r="E453" s="6">
         <v>17280</v>
       </c>
-      <c r="F453" s="5" t="s">
+      <c r="F453" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="454" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E454" s="7">
+      <c r="E454" s="6">
         <v>21482</v>
       </c>
-      <c r="F454" s="5" t="s">
+      <c r="F454" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="455" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E455" s="7">
+      <c r="E455" s="6">
         <v>20569</v>
       </c>
-      <c r="F455" s="5" t="s">
+      <c r="F455" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="456" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E456" s="7">
+      <c r="E456" s="6">
         <v>21496</v>
       </c>
-      <c r="F456" s="5" t="s">
+      <c r="F456" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="457" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E457" s="7">
+      <c r="E457" s="6">
         <v>21418</v>
       </c>
-      <c r="F457" s="5" t="s">
+      <c r="F457" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="458" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E458" s="7">
+      <c r="E458" s="6">
         <v>20340</v>
       </c>
-      <c r="F458" s="5" t="s">
+      <c r="F458" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="459" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E459" s="7">
+      <c r="E459" s="6">
         <v>20875</v>
       </c>
-      <c r="F459" s="5" t="s">
+      <c r="F459" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="460" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E460" s="7">
+      <c r="E460" s="6">
         <v>20588</v>
       </c>
-      <c r="F460" s="5" t="s">
+      <c r="F460" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="461" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E461" s="7">
+      <c r="E461" s="6">
         <v>20669</v>
       </c>
-      <c r="F461" s="5" t="s">
+      <c r="F461" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E462" s="7">
+      <c r="E462" s="6">
         <v>20181</v>
       </c>
-      <c r="F462" s="5" t="s">
+      <c r="F462" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="463" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E463" s="7">
+      <c r="E463" s="6">
         <v>19949</v>
       </c>
-      <c r="F463" s="5" t="s">
+      <c r="F463" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="464" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E464" s="7">
+      <c r="E464" s="6">
         <v>20927</v>
       </c>
-      <c r="F464" s="5" t="s">
+      <c r="F464" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="465" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E465" s="7">
+      <c r="E465" s="6">
         <v>17251</v>
       </c>
-      <c r="F465" s="5" t="s">
+      <c r="F465" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="466" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E466" s="7">
+      <c r="E466" s="6">
         <v>21420</v>
       </c>
-      <c r="F466" s="5" t="s">
+      <c r="F466" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="467" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E467" s="7">
+      <c r="E467" s="6">
         <v>21030</v>
       </c>
-      <c r="F467" s="5" t="s">
+      <c r="F467" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="468" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E468" s="7">
+      <c r="E468" s="6">
         <v>17992</v>
       </c>
-      <c r="F468" s="5" t="s">
+      <c r="F468" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="469" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E469" s="7">
+      <c r="E469" s="6">
         <v>20955</v>
       </c>
-      <c r="F469" s="5" t="s">
+      <c r="F469" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="470" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E470" s="7">
+      <c r="E470" s="6">
         <v>21457</v>
       </c>
-      <c r="F470" s="5" t="s">
+      <c r="F470" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="471" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E471" s="7">
+      <c r="E471" s="6">
         <v>21300</v>
       </c>
-      <c r="F471" s="5" t="s">
+      <c r="F471" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="472" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E472" s="7"/>
+      <c r="E472" s="6"/>
     </row>
     <row r="473" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E473" s="7"/>
+      <c r="E473" s="6"/>
     </row>
     <row r="474" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E474" s="7"/>
+      <c r="E474" s="6"/>
     </row>
     <row r="475" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E475" s="7"/>
+      <c r="E475" s="6"/>
     </row>
     <row r="476" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E476" s="7"/>
+      <c r="E476" s="6"/>
     </row>
     <row r="477" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E477" s="7"/>
+      <c r="E477" s="6"/>
     </row>
     <row r="478" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E478" s="7"/>
-      <c r="F478" s="10" t="s">
+      <c r="E478" s="6"/>
+      <c r="F478" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="479" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E479" s="7"/>
+      <c r="E479" s="6"/>
     </row>
     <row r="480" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E480" s="7"/>
+      <c r="E480" s="6"/>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E481" s="7"/>
+      <c r="E481" s="6"/>
     </row>
     <row r="482" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E482" s="7"/>
+      <c r="E482" s="6"/>
     </row>
     <row r="483" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E483" s="7"/>
+      <c r="E483" s="6"/>
     </row>
     <row r="484" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E484" s="7"/>
+      <c r="E484" s="6"/>
     </row>
     <row r="485" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E485" s="7"/>
+      <c r="E485" s="6"/>
     </row>
     <row r="486" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E486" s="7"/>
+      <c r="E486" s="6"/>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
@@ -4665,23 +4662,23 @@
       <c r="D487" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F487" s="5" t="s">
+      <c r="F487" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="488" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E488" s="8">
+      <c r="E488" s="7">
         <v>50006</v>
       </c>
-      <c r="F488" s="9" t="s">
+      <c r="F488" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="489" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E489" s="7"/>
+      <c r="E489" s="6"/>
     </row>
     <row r="490" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E490" s="7"/>
+      <c r="E490" s="6"/>
     </row>
     <row r="493" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
@@ -4693,210 +4690,210 @@
       <c r="D493" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F493" s="5" t="s">
+      <c r="F493" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="494" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E494" s="7">
+      <c r="E494" s="6">
         <v>21616</v>
       </c>
-      <c r="F494" s="5" t="s">
+      <c r="F494" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G494" s="5" t="s">
+      <c r="G494" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="495" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E495" s="7">
+      <c r="E495" s="6">
         <v>20872</v>
       </c>
-      <c r="F495" s="5" t="s">
+      <c r="F495" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="496" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E496" s="7">
+      <c r="E496" s="6">
         <v>20569</v>
       </c>
-      <c r="F496" s="5" t="s">
+      <c r="F496" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="497" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E497" s="7">
+      <c r="E497" s="6">
         <v>21482</v>
       </c>
-      <c r="F497" s="5" t="s">
+      <c r="F497" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="498" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E498" s="7">
+      <c r="E498" s="6">
         <v>20088</v>
       </c>
-      <c r="F498" s="5" t="s">
+      <c r="F498" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="499" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E499" s="7">
+      <c r="E499" s="6">
         <v>21417</v>
       </c>
-      <c r="F499" s="5" t="s">
+      <c r="F499" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="500" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E500" s="7">
+      <c r="E500" s="6">
         <v>20957</v>
       </c>
-      <c r="F500" s="5" t="s">
+      <c r="F500" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="501" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E501" s="7">
+      <c r="E501" s="6">
         <v>20877</v>
       </c>
-      <c r="F501" s="5" t="s">
+      <c r="F501" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="502" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E502" s="7">
+      <c r="E502" s="6">
         <v>20087</v>
       </c>
-      <c r="F502" s="5" t="s">
+      <c r="F502" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="503" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E503" s="7">
+      <c r="E503" s="6">
         <v>20181</v>
       </c>
-      <c r="F503" s="5" t="s">
+      <c r="F503" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="504" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E504" s="7">
+      <c r="E504" s="6">
         <v>21094</v>
       </c>
-      <c r="F504" s="5" t="s">
+      <c r="F504" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="505" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E505" s="7">
+      <c r="E505" s="6">
         <v>17472</v>
       </c>
-      <c r="F505" s="5" t="s">
+      <c r="F505" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="506" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E506" s="7">
+      <c r="E506" s="6">
         <v>21361</v>
       </c>
-      <c r="F506" s="5" t="s">
+      <c r="F506" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="507" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E507" s="7">
+      <c r="E507" s="6">
         <v>21430</v>
       </c>
-      <c r="F507" s="5" t="s">
+      <c r="F507" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="508" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E508" s="7">
+      <c r="E508" s="6">
         <v>21620</v>
       </c>
-      <c r="F508" s="5" t="s">
+      <c r="F508" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="509" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E509" s="7">
+      <c r="E509" s="6">
         <v>20589</v>
       </c>
-      <c r="F509" s="5" t="s">
+      <c r="F509" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="510" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E510" s="7">
+      <c r="E510" s="6">
         <v>17251</v>
       </c>
-      <c r="F510" s="5" t="s">
+      <c r="F510" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="511" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E511" s="7">
+      <c r="E511" s="6">
         <v>20652</v>
       </c>
-      <c r="F511" s="5" t="s">
+      <c r="F511" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="512" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E512" s="7">
+      <c r="E512" s="6">
         <v>21525</v>
       </c>
-      <c r="F512" s="5" t="s">
+      <c r="F512" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="513" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E513" s="7">
+      <c r="E513" s="6">
         <v>20690</v>
       </c>
-      <c r="F513" s="5" t="s">
+      <c r="F513" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="514" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E514" s="7">
+      <c r="E514" s="6">
         <v>20876</v>
       </c>
-      <c r="F514" s="5" t="s">
+      <c r="F514" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="515" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E515" s="7">
+      <c r="E515" s="6">
         <v>20241</v>
       </c>
-      <c r="F515" s="5" t="s">
+      <c r="F515" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="516" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E516" s="7">
+      <c r="E516" s="6">
         <v>21421</v>
       </c>
-      <c r="F516" s="5" t="s">
+      <c r="F516" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="517" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E517" s="7">
+      <c r="E517" s="6">
         <v>21431</v>
       </c>
-      <c r="F517" s="5" t="s">
+      <c r="F517" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="518" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E518" s="7">
+      <c r="E518" s="6">
         <v>21300</v>
       </c>
-      <c r="F518" s="5" t="s">
+      <c r="F518" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4910,231 +4907,231 @@
       <c r="D521" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F521" s="5" t="s">
+      <c r="F521" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="522" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E522" s="7">
+      <c r="E522" s="6">
         <v>19953</v>
       </c>
-      <c r="F522" s="5" t="s">
+      <c r="F522" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="523" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E523" s="7">
+      <c r="E523" s="6">
         <v>21457</v>
       </c>
-      <c r="F523" s="5" t="s">
+      <c r="F523" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="524" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E524" s="7">
+      <c r="E524" s="6">
         <v>21421</v>
       </c>
-      <c r="F524" s="5" t="s">
+      <c r="F524" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="525" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E525" s="7">
+      <c r="E525" s="6">
         <v>21482</v>
       </c>
-      <c r="F525" s="5" t="s">
+      <c r="F525" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="526" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E526" s="7">
+      <c r="E526" s="6">
         <v>21626</v>
       </c>
-      <c r="F526" s="5" t="s">
+      <c r="F526" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="527" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E527" s="7">
+      <c r="E527" s="6">
         <v>21563</v>
       </c>
-      <c r="F527" s="5" t="s">
+      <c r="F527" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="528" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E528" s="7">
+      <c r="E528" s="6">
         <v>17251</v>
       </c>
-      <c r="F528" s="5" t="s">
+      <c r="F528" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="529" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E529" s="7">
+      <c r="E529" s="6">
         <v>20876</v>
       </c>
-      <c r="F529" s="5" t="s">
+      <c r="F529" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="530" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E530" s="7">
+      <c r="E530" s="6">
         <v>21300</v>
       </c>
-      <c r="F530" s="5" t="s">
+      <c r="F530" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="531" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E531" s="7">
+      <c r="E531" s="6">
         <v>20241</v>
       </c>
-      <c r="F531" s="5" t="s">
+      <c r="F531" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="532" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E532" s="7">
+      <c r="E532" s="6">
         <v>21066</v>
       </c>
-      <c r="F532" s="5" t="s">
+      <c r="F532" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="533" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E533" s="7">
+      <c r="E533" s="6">
         <v>19964</v>
       </c>
-      <c r="F533" s="5" t="s">
+      <c r="F533" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="534" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E534" s="7">
+      <c r="E534" s="6">
         <v>20388</v>
       </c>
-      <c r="F534" s="5" t="s">
+      <c r="F534" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="535" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E535" s="7">
+      <c r="E535" s="6">
         <v>21616</v>
       </c>
-      <c r="F535" s="5" t="s">
+      <c r="F535" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="536" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E536" s="7">
+      <c r="E536" s="6">
         <v>21361</v>
       </c>
-      <c r="F536" s="5" t="s">
+      <c r="F536" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="537" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E537" s="7">
+      <c r="E537" s="6">
         <v>20919</v>
       </c>
-      <c r="F537" s="5" t="s">
+      <c r="F537" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="538" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E538" s="7">
+      <c r="E538" s="6">
         <v>21463</v>
       </c>
-      <c r="F538" s="5" t="s">
+      <c r="F538" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="539" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E539" s="7">
+      <c r="E539" s="6">
         <v>21422</v>
       </c>
-      <c r="F539" s="5" t="s">
+      <c r="F539" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="540" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E540" s="7">
+      <c r="E540" s="6">
         <v>20340</v>
       </c>
-      <c r="F540" s="5" t="s">
+      <c r="F540" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="541" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E541" s="7">
+      <c r="E541" s="6">
         <v>20864</v>
       </c>
-      <c r="F541" s="5" t="s">
+      <c r="F541" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="542" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E542" s="7">
+      <c r="E542" s="6">
         <v>21378</v>
       </c>
-      <c r="F542" s="5" t="s">
+      <c r="F542" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="543" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E543" s="7">
+      <c r="E543" s="6">
         <v>20803</v>
       </c>
-      <c r="F543" s="5" t="s">
+      <c r="F543" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="544" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E544" s="7">
+      <c r="E544" s="6">
         <v>21421</v>
       </c>
-      <c r="F544" s="5" t="s">
+      <c r="F544" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="545" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E545" s="7">
+      <c r="E545" s="6">
         <v>20588</v>
       </c>
-      <c r="F545" s="5" t="s">
+      <c r="F545" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="546" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E546" s="7">
+      <c r="E546" s="6">
         <v>21107</v>
       </c>
-      <c r="F546" s="5" t="s">
+      <c r="F546" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="547" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E547" s="7">
+      <c r="E547" s="6">
         <v>21539</v>
       </c>
-      <c r="F547" s="5" t="s">
+      <c r="F547" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="548" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E548" s="7">
+      <c r="E548" s="6">
         <v>21423</v>
       </c>
-      <c r="F548" s="5" t="s">
+      <c r="F548" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="549" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E549" s="7">
+      <c r="E549" s="6">
         <v>20651</v>
       </c>
-      <c r="F549" s="5" t="s">
+      <c r="F549" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5148,265 +5145,265 @@
       <c r="D552" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F552" s="5" t="s">
+      <c r="F552" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="553" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E553" s="7">
+      <c r="E553" s="6">
         <v>19885</v>
       </c>
-      <c r="F553" s="5" t="s">
+      <c r="F553" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="554" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E554" s="7">
+      <c r="E554" s="6">
         <v>21362</v>
       </c>
-      <c r="F554" s="5" t="s">
+      <c r="F554" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="555" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E555" s="7">
+      <c r="E555" s="6">
         <v>17992</v>
       </c>
-      <c r="F555" s="5" t="s">
+      <c r="F555" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="556" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E556" s="7">
+      <c r="E556" s="6">
         <v>20619</v>
       </c>
-      <c r="F556" s="5" t="s">
+      <c r="F556" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="557" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E557" s="7">
+      <c r="E557" s="6">
         <v>20339</v>
       </c>
-      <c r="F557" s="5" t="s">
+      <c r="F557" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="558" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E558" s="7">
+      <c r="E558" s="6">
         <v>21423</v>
       </c>
-      <c r="F558" s="5" t="s">
+      <c r="F558" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="559" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E559" s="7">
+      <c r="E559" s="6">
         <v>21482</v>
       </c>
-      <c r="F559" s="5" t="s">
+      <c r="F559" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="560" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E560" s="7">
+      <c r="E560" s="6">
         <v>21420</v>
       </c>
-      <c r="F560" s="5" t="s">
+      <c r="F560" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="561" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E561" s="7">
+      <c r="E561" s="6">
         <v>21300</v>
       </c>
-      <c r="F561" s="5" t="s">
+      <c r="F561" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="562" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E562" s="7">
+      <c r="E562" s="6">
         <v>21523</v>
       </c>
-      <c r="F562" s="5" t="s">
+      <c r="F562" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="563" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E563" s="7">
+      <c r="E563" s="6">
         <v>21626</v>
       </c>
-      <c r="F563" s="5" t="s">
+      <c r="F563" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="564" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E564" s="7">
+      <c r="E564" s="6">
         <v>17251</v>
       </c>
-      <c r="F564" s="5" t="s">
+      <c r="F564" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="565" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E565" s="7">
+      <c r="E565" s="6">
         <v>20874</v>
       </c>
-      <c r="F565" s="5" t="s">
+      <c r="F565" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="566" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E566" s="7">
+      <c r="E566" s="6">
         <v>21616</v>
       </c>
-      <c r="F566" s="5" t="s">
+      <c r="F566" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="567" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E567" s="7">
+      <c r="E567" s="6">
         <v>21525</v>
       </c>
-      <c r="F567" s="5" t="s">
+      <c r="F567" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="568" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E568" s="7">
+      <c r="E568" s="6">
         <v>21495</v>
       </c>
-      <c r="F568" s="5" t="s">
+      <c r="F568" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="569" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E569" s="7">
+      <c r="E569" s="6">
         <v>20919</v>
       </c>
-      <c r="F569" s="5" t="s">
+      <c r="F569" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="570" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E570" s="7">
+      <c r="E570" s="6">
         <v>21156</v>
       </c>
-      <c r="F570" s="5" t="s">
+      <c r="F570" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="571" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E571" s="7">
+      <c r="E571" s="6">
         <v>20803</v>
       </c>
-      <c r="F571" s="5" t="s">
+      <c r="F571" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="572" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E572" s="7">
+      <c r="E572" s="6">
         <v>20904</v>
       </c>
-      <c r="F572" s="5" t="s">
+      <c r="F572" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="573" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E573" s="7">
+      <c r="E573" s="6">
         <v>20241</v>
       </c>
-      <c r="F573" s="5" t="s">
+      <c r="F573" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="574" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E574" s="7">
+      <c r="E574" s="6">
         <v>21420</v>
       </c>
-      <c r="F574" s="5" t="s">
+      <c r="F574" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="575" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E575" s="7">
+      <c r="E575" s="6">
         <v>21457</v>
       </c>
-      <c r="F575" s="5" t="s">
+      <c r="F575" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="576" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E576" s="7">
+      <c r="E576" s="6">
         <v>21422</v>
       </c>
-      <c r="F576" s="5" t="s">
+      <c r="F576" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="577" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E577" s="7">
+      <c r="E577" s="6">
         <v>20708</v>
       </c>
-      <c r="F577" s="5" t="s">
+      <c r="F577" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="578" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E578" s="7">
+      <c r="E578" s="6">
         <v>20387</v>
       </c>
-      <c r="F578" s="5" t="s">
+      <c r="F578" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="579" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E579" s="7"/>
+      <c r="E579" s="6"/>
     </row>
     <row r="580" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E580" s="7"/>
+      <c r="E580" s="6"/>
     </row>
     <row r="581" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E581" s="7"/>
+      <c r="E581" s="6"/>
     </row>
     <row r="582" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E582" s="7"/>
+      <c r="E582" s="6"/>
     </row>
     <row r="583" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E583" s="7"/>
+      <c r="E583" s="6"/>
     </row>
     <row r="584" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E584" s="7"/>
+      <c r="E584" s="6"/>
     </row>
     <row r="585" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E585" s="7"/>
-      <c r="F585" s="10" t="s">
+      <c r="E585" s="6"/>
+      <c r="F585" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="586" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E586" s="7"/>
+      <c r="E586" s="6"/>
     </row>
     <row r="587" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E587" s="7"/>
+      <c r="E587" s="6"/>
     </row>
     <row r="588" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E588" s="7"/>
+      <c r="E588" s="6"/>
     </row>
     <row r="589" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E589" s="7"/>
+      <c r="E589" s="6"/>
     </row>
     <row r="590" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E590" s="7"/>
+      <c r="E590" s="6"/>
     </row>
     <row r="591" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E591" s="7"/>
+      <c r="E591" s="6"/>
     </row>
     <row r="592" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E592" s="7"/>
+      <c r="E592" s="6"/>
     </row>
     <row r="593" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E593" s="7"/>
+      <c r="E593" s="6"/>
     </row>
     <row r="594" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B594" t="s">
@@ -5418,23 +5415,23 @@
       <c r="D594" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F594" s="5" t="s">
+      <c r="F594" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="595" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E595" s="8">
+      <c r="E595" s="7">
         <v>50007</v>
       </c>
-      <c r="F595" s="9" t="s">
+      <c r="F595" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="596" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E596" s="7"/>
+      <c r="E596" s="6"/>
     </row>
     <row r="597" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E597" s="7"/>
+      <c r="E597" s="6"/>
     </row>
     <row r="600" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B600" t="s">
@@ -5446,199 +5443,199 @@
       <c r="D600" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F600" s="5" t="s">
+      <c r="F600" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="601" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E601" s="7">
+      <c r="E601" s="6">
         <v>17251</v>
       </c>
-      <c r="F601" s="5" t="s">
+      <c r="F601" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="602" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E602" s="7">
+      <c r="E602" s="6">
         <v>21361</v>
       </c>
-      <c r="F602" s="5" t="s">
+      <c r="F602" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="603" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E603" s="7">
+      <c r="E603" s="6">
         <v>21457</v>
       </c>
-      <c r="F603" s="5" t="s">
+      <c r="F603" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="604" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E604" s="7">
+      <c r="E604" s="6">
         <v>21097</v>
       </c>
-      <c r="F604" s="5" t="s">
+      <c r="F604" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="605" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E605" s="7">
+      <c r="E605" s="6">
         <v>20898</v>
       </c>
-      <c r="F605" s="5" t="s">
+      <c r="F605" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="606" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E606" s="7">
+      <c r="E606" s="6">
         <v>21496</v>
       </c>
-      <c r="F606" s="5" t="s">
+      <c r="F606" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="607" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E607" s="7">
+      <c r="E607" s="6">
         <v>17762</v>
       </c>
-      <c r="F607" s="5" t="s">
+      <c r="F607" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="608" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E608" s="7">
+      <c r="E608" s="6">
         <v>21626</v>
       </c>
-      <c r="F608" s="5" t="s">
+      <c r="F608" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="609" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E609" s="7">
+      <c r="E609" s="6">
         <v>21300</v>
       </c>
-      <c r="F609" s="5" t="s">
+      <c r="F609" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="610" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E610" s="7">
+      <c r="E610" s="6">
         <v>17251</v>
       </c>
-      <c r="F610" s="5" t="s">
+      <c r="F610" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="611" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E611" s="7">
+      <c r="E611" s="6">
         <v>20872</v>
       </c>
-      <c r="F611" s="5" t="s">
+      <c r="F611" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="612" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E612" s="7">
+      <c r="E612" s="6">
         <v>19964</v>
       </c>
-      <c r="F612" s="5" t="s">
+      <c r="F612" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="613" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E613" s="7">
+      <c r="E613" s="6">
         <v>21616</v>
       </c>
-      <c r="F613" s="5" t="s">
+      <c r="F613" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="614" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E614" s="7">
+      <c r="E614" s="6">
         <v>20917</v>
       </c>
-      <c r="F614" s="5" t="s">
+      <c r="F614" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="615" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E615" s="7">
+      <c r="E615" s="6">
         <v>21157</v>
       </c>
-      <c r="F615" s="5" t="s">
+      <c r="F615" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="616" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E616" s="7">
+      <c r="E616" s="6">
         <v>21422</v>
       </c>
-      <c r="F616" s="5" t="s">
+      <c r="F616" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="617" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E617" s="7">
+      <c r="E617" s="6">
         <v>21482</v>
       </c>
-      <c r="F617" s="5" t="s">
+      <c r="F617" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="618" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E618" s="7">
+      <c r="E618" s="6">
         <v>17992</v>
       </c>
-      <c r="F618" s="5" t="s">
+      <c r="F618" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="619" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E619" s="7">
+      <c r="E619" s="6">
         <v>20619</v>
       </c>
-      <c r="F619" s="5" t="s">
+      <c r="F619" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="620" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E620" s="7">
+      <c r="E620" s="6">
         <v>21421</v>
       </c>
-      <c r="F620" s="5" t="s">
+      <c r="F620" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="621" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E621" s="7">
+      <c r="E621" s="6">
         <v>20708</v>
       </c>
-      <c r="F621" s="5" t="s">
+      <c r="F621" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="622" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E622" s="7">
+      <c r="E622" s="6">
         <v>20381</v>
       </c>
-      <c r="F622" s="5" t="s">
+      <c r="F622" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="623" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E623" s="7">
+      <c r="E623" s="6">
         <v>20588</v>
       </c>
-      <c r="F623" s="5" t="s">
+      <c r="F623" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="624" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E624" s="7">
+      <c r="E624" s="6">
         <v>21539</v>
       </c>
-      <c r="F624" s="5" t="s">
+      <c r="F624" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5652,231 +5649,231 @@
       <c r="D627" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F627" s="5" t="s">
+      <c r="F627" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="628" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E628" s="7">
+      <c r="E628" s="6">
         <v>20955</v>
       </c>
-      <c r="F628" s="5" t="s">
+      <c r="F628" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="629" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E629" s="7">
+      <c r="E629" s="6">
         <v>21457</v>
       </c>
-      <c r="F629" s="5" t="s">
+      <c r="F629" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="630" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E630" s="7">
+      <c r="E630" s="6">
         <v>20651</v>
       </c>
-      <c r="F630" s="5" t="s">
+      <c r="F630" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="631" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E631" s="7">
+      <c r="E631" s="6">
         <v>20339</v>
       </c>
-      <c r="F631" s="5" t="s">
+      <c r="F631" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="632" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E632" s="7">
+      <c r="E632" s="6">
         <v>21626</v>
       </c>
-      <c r="F632" s="5" t="s">
+      <c r="F632" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="633" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E633" s="7">
+      <c r="E633" s="6">
         <v>17251</v>
       </c>
-      <c r="F633" s="5" t="s">
+      <c r="F633" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="634" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E634" s="7">
+      <c r="E634" s="6">
         <v>21300</v>
       </c>
-      <c r="F634" s="5" t="s">
+      <c r="F634" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="635" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E635" s="7">
+      <c r="E635" s="6">
         <v>20241</v>
       </c>
-      <c r="F635" s="5" t="s">
+      <c r="F635" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="636" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E636" s="7">
+      <c r="E636" s="6">
         <v>21066</v>
       </c>
-      <c r="F636" s="5" t="s">
+      <c r="F636" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="637" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E637" s="7">
+      <c r="E637" s="6">
         <v>21616</v>
       </c>
-      <c r="F637" s="5" t="s">
+      <c r="F637" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="638" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E638" s="7">
+      <c r="E638" s="6">
         <v>19964</v>
       </c>
-      <c r="F638" s="5" t="s">
+      <c r="F638" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="639" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E639" s="7">
+      <c r="E639" s="6">
         <v>20803</v>
       </c>
-      <c r="F639" s="5" t="s">
+      <c r="F639" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="640" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E640" s="7">
+      <c r="E640" s="6">
         <v>21422</v>
       </c>
-      <c r="F640" s="5" t="s">
+      <c r="F640" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="641" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E641" s="7">
+      <c r="E641" s="6">
         <v>17387</v>
       </c>
-      <c r="F641" s="5" t="s">
+      <c r="F641" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="642" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E642" s="7">
+      <c r="E642" s="6">
         <v>20864</v>
       </c>
-      <c r="F642" s="5" t="s">
+      <c r="F642" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="643" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E643" s="7">
+      <c r="E643" s="6">
         <v>19531</v>
       </c>
-      <c r="F643" s="5" t="s">
+      <c r="F643" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="644" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E644" s="7">
+      <c r="E644" s="6">
         <v>21378</v>
       </c>
-      <c r="F644" s="5" t="s">
+      <c r="F644" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="645" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E645" s="7">
+      <c r="E645" s="6">
         <v>21420</v>
       </c>
-      <c r="F645" s="5" t="s">
+      <c r="F645" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="646" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E646" s="7">
+      <c r="E646" s="6">
         <v>17284</v>
       </c>
-      <c r="F646" s="5" t="s">
+      <c r="F646" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="647" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E647" s="7">
+      <c r="E647" s="6">
         <v>20379</v>
       </c>
-      <c r="F647" s="5" t="s">
+      <c r="F647" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="648" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E648" s="7">
+      <c r="E648" s="6">
         <v>21362</v>
       </c>
-      <c r="F648" s="5" t="s">
+      <c r="F648" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="649" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E649" s="7">
+      <c r="E649" s="6">
         <v>20588</v>
       </c>
-      <c r="F649" s="5" t="s">
+      <c r="F649" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="650" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E650" s="7">
+      <c r="E650" s="6">
         <v>21086</v>
       </c>
-      <c r="F650" s="5" t="s">
+      <c r="F650" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="651" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E651" s="7">
+      <c r="E651" s="6">
         <v>21539</v>
       </c>
-      <c r="F651" s="5" t="s">
+      <c r="F651" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="652" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E652" s="7">
+      <c r="E652" s="6">
         <v>20589</v>
       </c>
-      <c r="F652" s="5" t="s">
+      <c r="F652" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="653" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E653" s="7">
+      <c r="E653" s="6">
         <v>21423</v>
       </c>
-      <c r="F653" s="5" t="s">
+      <c r="F653" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="654" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E654" s="7">
+      <c r="E654" s="6">
         <v>20087</v>
       </c>
-      <c r="F654" s="5" t="s">
+      <c r="F654" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="655" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E655" s="7">
+      <c r="E655" s="6">
         <v>20690</v>
       </c>
-      <c r="F655" s="5" t="s">
+      <c r="F655" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5890,223 +5887,223 @@
       <c r="D658" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F658" s="5" t="s">
+      <c r="F658" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="659" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E659" s="7">
+      <c r="E659" s="6">
         <v>20955</v>
       </c>
-      <c r="F659" s="5" t="s">
+      <c r="F659" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="660" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E660" s="7">
+      <c r="E660" s="6">
         <v>11642</v>
       </c>
-      <c r="F660" s="5" t="s">
+      <c r="F660" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="661" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E661" s="7">
+      <c r="E661" s="6">
         <v>21097</v>
       </c>
-      <c r="F661" s="5" t="s">
+      <c r="F661" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="662" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E662" s="7">
+      <c r="E662" s="6">
         <v>20340</v>
       </c>
-      <c r="F662" s="5" t="s">
+      <c r="F662" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="663" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E663" s="7">
+      <c r="E663" s="6">
         <v>21300</v>
       </c>
-      <c r="F663" s="5" t="s">
+      <c r="F663" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="664" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E664" s="7">
+      <c r="E664" s="6">
         <v>21482</v>
       </c>
-      <c r="F664" s="5" t="s">
+      <c r="F664" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="665" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E665" s="7">
+      <c r="E665" s="6">
         <v>21495</v>
       </c>
-      <c r="F665" s="5" t="s">
+      <c r="F665" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="666" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E666" s="7">
+      <c r="E666" s="6">
         <v>21521</v>
       </c>
-      <c r="F666" s="5" t="s">
+      <c r="F666" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="667" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E667" s="7">
+      <c r="E667" s="6">
         <v>21563</v>
       </c>
-      <c r="F667" s="5" t="s">
+      <c r="F667" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="668" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E668" s="7">
+      <c r="E668" s="6">
         <v>21626</v>
       </c>
-      <c r="F668" s="5" t="s">
+      <c r="F668" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="669" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E669" s="7">
+      <c r="E669" s="6">
         <v>19964</v>
       </c>
-      <c r="F669" s="5" t="s">
+      <c r="F669" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="670" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E670" s="7">
+      <c r="E670" s="6">
         <v>20388</v>
       </c>
-      <c r="F670" s="5" t="s">
+      <c r="F670" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="671" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E671" s="7">
+      <c r="E671" s="6">
         <v>21616</v>
       </c>
-      <c r="F671" s="5" t="s">
+      <c r="F671" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="672" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E672" s="7">
+      <c r="E672" s="6">
         <v>20917</v>
       </c>
-      <c r="F672" s="5" t="s">
+      <c r="F672" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="673" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E673" s="7">
+      <c r="E673" s="6">
         <v>21361</v>
       </c>
-      <c r="F673" s="5" t="s">
+      <c r="F673" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="674" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E674" s="7">
+      <c r="E674" s="6">
         <v>20803</v>
       </c>
-      <c r="F674" s="5" t="s">
+      <c r="F674" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="675" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E675" s="7">
+      <c r="E675" s="6">
         <v>20864</v>
       </c>
-      <c r="F675" s="5" t="s">
+      <c r="F675" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="676" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E676" s="7">
+      <c r="E676" s="6">
         <v>20619</v>
       </c>
-      <c r="F676" s="5" t="s">
+      <c r="F676" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="677" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E677" s="7">
+      <c r="E677" s="6">
         <v>21421</v>
       </c>
-      <c r="F677" s="5" t="s">
+      <c r="F677" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="678" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E678" s="7">
+      <c r="E678" s="6">
         <v>17284</v>
       </c>
-      <c r="F678" s="5" t="s">
+      <c r="F678" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="679" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E679" s="7">
+      <c r="E679" s="6">
         <v>20381</v>
       </c>
-      <c r="F679" s="5" t="s">
+      <c r="F679" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="680" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E680" s="7">
+      <c r="E680" s="6">
         <v>21457</v>
       </c>
-      <c r="F680" s="5" t="s">
+      <c r="F680" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="681" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E681" s="7">
+      <c r="E681" s="6">
         <v>20589</v>
       </c>
-      <c r="F681" s="5" t="s">
+      <c r="F681" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="682" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E682" s="7">
+      <c r="E682" s="6">
         <v>21083</v>
       </c>
-      <c r="F682" s="5" t="s">
+      <c r="F682" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="683" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E683" s="7">
+      <c r="E683" s="6">
         <v>21541</v>
       </c>
-      <c r="F683" s="5" t="s">
+      <c r="F683" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="684" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E684" s="7">
+      <c r="E684" s="6">
         <v>20589</v>
       </c>
-      <c r="F684" s="5" t="s">
+      <c r="F684" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="685" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E685" s="7">
+      <c r="E685" s="6">
         <v>20596</v>
       </c>
-      <c r="F685" s="5" t="s">
+      <c r="F685" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6120,273 +6117,273 @@
       <c r="D688" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F688" s="5" t="s">
+      <c r="F688" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="689" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E689" s="7">
+      <c r="E689" s="6">
         <v>21533</v>
       </c>
-      <c r="F689" s="5" t="s">
+      <c r="F689" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="690" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E690" s="7">
+      <c r="E690" s="6">
         <v>21457</v>
       </c>
-      <c r="F690" s="5" t="s">
+      <c r="F690" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="691" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E691" s="7">
+      <c r="E691" s="6">
         <v>21423</v>
       </c>
-      <c r="F691" s="5" t="s">
+      <c r="F691" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="692" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E692" s="7">
+      <c r="E692" s="6">
         <v>20589</v>
       </c>
-      <c r="F692" s="5" t="s">
+      <c r="F692" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="693" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E693" s="7">
+      <c r="E693" s="6">
         <v>20339</v>
       </c>
-      <c r="F693" s="5" t="s">
+      <c r="F693" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="694" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E694" s="7">
+      <c r="E694" s="6">
         <v>21482</v>
       </c>
-      <c r="F694" s="5" t="s">
+      <c r="F694" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="695" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E695" s="7">
+      <c r="E695" s="6">
         <v>21521</v>
       </c>
-      <c r="F695" s="5" t="s">
+      <c r="F695" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="696" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E696" s="7">
+      <c r="E696" s="6">
         <v>21626</v>
       </c>
-      <c r="F696" s="5" t="s">
+      <c r="F696" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="697" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E697" s="7">
+      <c r="E697" s="6">
         <v>17251</v>
       </c>
-      <c r="F697" s="5" t="s">
+      <c r="F697" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="698" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E698" s="7">
+      <c r="E698" s="6">
         <v>21300</v>
       </c>
-      <c r="F698" s="5" t="s">
+      <c r="F698" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="699" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E699" s="7">
+      <c r="E699" s="6">
         <v>19964</v>
       </c>
-      <c r="F699" s="5" t="s">
+      <c r="F699" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="700" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E700" s="7">
+      <c r="E700" s="6">
         <v>21616</v>
       </c>
-      <c r="F700" s="5" t="s">
+      <c r="F700" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="701" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E701" s="7">
+      <c r="E701" s="6">
         <v>20919</v>
       </c>
-      <c r="F701" s="5" t="s">
+      <c r="F701" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="702" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E702" s="7">
+      <c r="E702" s="6">
         <v>20241</v>
       </c>
-      <c r="F702" s="5" t="s">
+      <c r="F702" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="703" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E703" s="7">
+      <c r="E703" s="6">
         <v>21496</v>
       </c>
-      <c r="F703" s="5" t="s">
+      <c r="F703" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="704" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E704" s="7">
+      <c r="E704" s="6">
         <v>21422</v>
       </c>
-      <c r="F704" s="5" t="s">
+      <c r="F704" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="705" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E705" s="7">
+      <c r="E705" s="6">
         <v>17387</v>
       </c>
-      <c r="F705" s="5" t="s">
+      <c r="F705" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="706" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E706" s="7">
+      <c r="E706" s="6">
         <v>17992</v>
       </c>
-      <c r="F706" s="5" t="s">
+      <c r="F706" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="707" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E707" s="7">
+      <c r="E707" s="6">
         <v>21420</v>
       </c>
-      <c r="F707" s="5" t="s">
+      <c r="F707" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="708" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E708" s="7">
+      <c r="E708" s="6">
         <v>20381</v>
       </c>
-      <c r="F708" s="5" t="s">
+      <c r="F708" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="709" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E709" s="7">
+      <c r="E709" s="6">
         <v>21362</v>
       </c>
-      <c r="F709" s="5" t="s">
+      <c r="F709" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="710" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E710" s="7">
+      <c r="E710" s="6">
         <v>20803</v>
       </c>
-      <c r="F710" s="5" t="s">
+      <c r="F710" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="711" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E711" s="7">
+      <c r="E711" s="6">
         <v>20588</v>
       </c>
-      <c r="F711" s="5" t="s">
+      <c r="F711" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="712" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E712" s="7">
+      <c r="E712" s="6">
         <v>21090</v>
       </c>
-      <c r="F712" s="5" t="s">
+      <c r="F712" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="713" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E713" s="7">
+      <c r="E713" s="6">
         <v>20588</v>
       </c>
-      <c r="F713" s="5" t="s">
+      <c r="F713" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="714" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E714" s="7">
+      <c r="E714" s="6">
         <v>21541</v>
       </c>
-      <c r="F714" s="5" t="s">
+      <c r="F714" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="715" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E715" s="7"/>
+      <c r="E715" s="6"/>
     </row>
     <row r="716" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E716" s="7"/>
+      <c r="E716" s="6"/>
     </row>
     <row r="717" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E717" s="7"/>
+      <c r="E717" s="6"/>
     </row>
     <row r="718" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E718" s="7"/>
+      <c r="E718" s="6"/>
     </row>
     <row r="719" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E719" s="7"/>
+      <c r="E719" s="6"/>
     </row>
     <row r="720" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E720" s="7"/>
+      <c r="E720" s="6"/>
     </row>
     <row r="721" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E721" s="7"/>
-      <c r="F721" s="10" t="s">
+      <c r="E721" s="6"/>
+      <c r="F721" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="722" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E722" s="8">
+      <c r="E722" s="7">
         <v>50007</v>
       </c>
-      <c r="F722" s="9" t="s">
+      <c r="F722" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="723" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E723" s="7"/>
+      <c r="E723" s="6"/>
     </row>
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E724" s="7"/>
+      <c r="E724" s="6"/>
     </row>
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E725" s="7"/>
+      <c r="E725" s="6"/>
     </row>
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E726" s="7"/>
+      <c r="E726" s="6"/>
     </row>
     <row r="727" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E727" s="7"/>
+      <c r="E727" s="6"/>
     </row>
     <row r="728" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E728" s="7"/>
+      <c r="E728" s="6"/>
     </row>
     <row r="729" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E729" s="7"/>
+      <c r="E729" s="6"/>
     </row>
     <row r="730" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E730" s="7"/>
+      <c r="E730" s="6"/>
     </row>
     <row r="731" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B731" t="s">
@@ -6398,23 +6395,23 @@
       <c r="D731" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F731" s="5" t="s">
+      <c r="F731" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="732" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E732" s="8">
+      <c r="E732" s="7">
         <v>50006</v>
       </c>
-      <c r="F732" s="9" t="s">
+      <c r="F732" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="733" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E733" s="7"/>
+      <c r="E733" s="6"/>
     </row>
     <row r="734" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E734" s="7"/>
+      <c r="E734" s="6"/>
     </row>
     <row r="737" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B737" t="s">
@@ -6426,189 +6423,189 @@
       <c r="D737" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F737" s="5" t="s">
+      <c r="F737" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="738" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E738" s="7">
+      <c r="E738" s="6">
         <v>21616</v>
       </c>
-      <c r="F738" s="5" t="s">
+      <c r="F738" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G738" s="5" t="s">
+      <c r="G738" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="739" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E739" s="7">
+      <c r="E739" s="6">
         <v>21097</v>
       </c>
-      <c r="F739" s="5" t="s">
+      <c r="F739" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G739" s="5" t="s">
+      <c r="G739" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="740" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E740" s="7">
+      <c r="E740" s="6">
         <v>17472</v>
       </c>
-      <c r="F740" s="5" t="s">
+      <c r="F740" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="741" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E741" s="7">
+      <c r="E741" s="6">
         <v>21094</v>
       </c>
-      <c r="F741" s="5" t="s">
+      <c r="F741" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="742" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E742" s="7">
+      <c r="E742" s="6">
         <v>21495</v>
       </c>
-      <c r="F742" s="5" t="s">
+      <c r="F742" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="743" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E743" s="7">
+      <c r="E743" s="6">
         <v>20957</v>
       </c>
-      <c r="F743" s="5" t="s">
+      <c r="F743" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="744" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E744" s="7">
+      <c r="E744" s="6">
         <v>20588</v>
       </c>
-      <c r="F744" s="5" t="s">
+      <c r="F744" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="745" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E745" s="7">
+      <c r="E745" s="6">
         <v>21363</v>
       </c>
-      <c r="F745" s="5" t="s">
+      <c r="F745" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="746" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E746" s="7">
+      <c r="E746" s="6">
         <v>21157</v>
       </c>
-      <c r="F746" s="5" t="s">
+      <c r="F746" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="747" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E747" s="7">
+      <c r="E747" s="6">
         <v>20181</v>
       </c>
-      <c r="F747" s="5" t="s">
+      <c r="F747" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="748" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E748" s="7">
+      <c r="E748" s="6">
         <v>20873</v>
       </c>
-      <c r="F748" s="5" t="s">
+      <c r="F748" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="749" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E749" s="7">
+      <c r="E749" s="6">
         <v>21041</v>
       </c>
-      <c r="F749" s="5" t="s">
+      <c r="F749" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="750" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E750" s="7">
+      <c r="E750" s="6">
         <v>17284</v>
       </c>
-      <c r="F750" s="5" t="s">
+      <c r="F750" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="751" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E751" s="7">
+      <c r="E751" s="6">
         <v>20708</v>
       </c>
-      <c r="F751" s="5" t="s">
+      <c r="F751" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="752" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E752" s="7">
+      <c r="E752" s="6">
         <v>18273</v>
       </c>
-      <c r="F752" s="5" t="s">
+      <c r="F752" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="753" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E753" s="7">
+      <c r="E753" s="6">
         <v>20669</v>
       </c>
-      <c r="F753" s="5" t="s">
+      <c r="F753" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="754" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E754" s="7">
+      <c r="E754" s="6">
         <v>17355</v>
       </c>
-      <c r="F754" s="5" t="s">
+      <c r="F754" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="755" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E755" s="7">
+      <c r="E755" s="6">
         <v>19964</v>
       </c>
-      <c r="F755" s="5" t="s">
+      <c r="F755" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="756" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E756" s="7">
+      <c r="E756" s="6">
         <v>21482</v>
       </c>
-      <c r="F756" s="5" t="s">
+      <c r="F756" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="757" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E757" s="7">
+      <c r="E757" s="6">
         <v>20652</v>
       </c>
-      <c r="F757" s="5" t="s">
+      <c r="F757" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="758" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E758" s="7">
+      <c r="E758" s="6">
         <v>21596</v>
       </c>
-      <c r="F758" s="5" t="s">
+      <c r="F758" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="759" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E759" s="7">
+      <c r="E759" s="6">
         <v>21640</v>
       </c>
-      <c r="F759" s="5" t="s">
+      <c r="F759" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6622,167 +6619,167 @@
       <c r="D762" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F762" s="5" t="s">
+      <c r="F762" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="763" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E763" s="7">
+      <c r="E763" s="6">
         <v>20957</v>
       </c>
-      <c r="F763" s="5" t="s">
+      <c r="F763" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="764" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E764" s="7">
+      <c r="E764" s="6">
         <v>21362</v>
       </c>
-      <c r="F764" s="5" t="s">
+      <c r="F764" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="765" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E765" s="7">
+      <c r="E765" s="6">
         <v>20569</v>
       </c>
-      <c r="F765" s="5" t="s">
+      <c r="F765" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="766" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E766" s="7">
+      <c r="E766" s="6">
         <v>20874</v>
       </c>
-      <c r="F766" s="5" t="s">
+      <c r="F766" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="767" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E767" s="7">
+      <c r="E767" s="6">
         <v>20589</v>
       </c>
-      <c r="F767" s="5" t="s">
+      <c r="F767" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="768" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E768" s="7">
+      <c r="E768" s="6">
         <v>20029</v>
       </c>
-      <c r="F768" s="5" t="s">
+      <c r="F768" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="769" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E769" s="7">
+      <c r="E769" s="6">
         <v>21418</v>
       </c>
-      <c r="F769" s="5" t="s">
+      <c r="F769" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="770" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E770" s="7">
+      <c r="E770" s="6">
         <v>17579</v>
       </c>
-      <c r="F770" s="5" t="s">
+      <c r="F770" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="771" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E771" s="7">
+      <c r="E771" s="6">
         <v>20181</v>
       </c>
-      <c r="F771" s="5" t="s">
+      <c r="F771" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="772" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E772" s="7">
+      <c r="E772" s="6">
         <v>20876</v>
       </c>
-      <c r="F772" s="5" t="s">
+      <c r="F772" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="773" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E773" s="7">
+      <c r="E773" s="6">
         <v>17280</v>
       </c>
-      <c r="F773" s="5" t="s">
+      <c r="F773" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="774" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E774" s="7">
+      <c r="E774" s="6">
         <v>20339</v>
       </c>
-      <c r="F774" s="5" t="s">
+      <c r="F774" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="775" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E775" s="7">
+      <c r="E775" s="6">
         <v>20541</v>
       </c>
-      <c r="F775" s="5" t="s">
+      <c r="F775" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="776" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E776" s="7">
+      <c r="E776" s="6">
         <v>20875</v>
       </c>
-      <c r="F776" s="5" t="s">
+      <c r="F776" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="777" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E777" s="7">
+      <c r="E777" s="6">
         <v>20690</v>
       </c>
-      <c r="F777" s="5" t="s">
+      <c r="F777" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="778" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E778" s="7">
+      <c r="E778" s="6">
         <v>18729</v>
       </c>
-      <c r="F778" s="5" t="s">
+      <c r="F778" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="779" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E779" s="7">
+      <c r="E779" s="6">
         <v>20927</v>
       </c>
-      <c r="F779" s="5" t="s">
+      <c r="F779" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="780" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E780" s="7">
+      <c r="E780" s="6">
         <v>21435</v>
       </c>
-      <c r="F780" s="5" t="s">
+      <c r="F780" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="781" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E781" s="7">
+      <c r="E781" s="6">
         <v>17387</v>
       </c>
-      <c r="F781" s="5" t="s">
+      <c r="F781" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="782" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E782" s="7">
+      <c r="E782" s="6">
         <v>21594</v>
       </c>
-      <c r="F782" s="5" t="s">
+      <c r="F782" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6796,197 +6793,197 @@
       <c r="D785" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F785" s="5" t="s">
+      <c r="F785" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="786" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E786" s="7">
+      <c r="E786" s="6">
         <v>21616</v>
       </c>
-      <c r="F786" s="5" t="s">
+      <c r="F786" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G786" s="5" t="s">
+      <c r="G786" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="787" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E787" s="7">
+      <c r="E787" s="6">
         <v>21097</v>
       </c>
-      <c r="F787" s="5" t="s">
+      <c r="F787" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G787" s="5" t="s">
+      <c r="G787" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="788" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E788" s="7">
+      <c r="E788" s="6">
         <v>20690</v>
       </c>
-      <c r="F788" s="5" t="s">
+      <c r="F788" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="789" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E789" s="7">
+      <c r="E789" s="6">
         <v>21421</v>
       </c>
-      <c r="F789" s="5" t="s">
+      <c r="F789" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="790" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E790" s="7">
+      <c r="E790" s="6">
         <v>21495</v>
       </c>
-      <c r="F790" s="5" t="s">
+      <c r="F790" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="791" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E791" s="7">
+      <c r="E791" s="6">
         <v>20031</v>
       </c>
-      <c r="F791" s="5" t="s">
+      <c r="F791" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="792" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E792" s="7">
+      <c r="E792" s="6">
         <v>20588</v>
       </c>
-      <c r="F792" s="5" t="s">
+      <c r="F792" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="793" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E793" s="7">
+      <c r="E793" s="6">
         <v>20311</v>
       </c>
-      <c r="F793" s="5" t="s">
+      <c r="F793" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="794" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E794" s="7">
+      <c r="E794" s="6">
         <v>20877</v>
       </c>
-      <c r="F794" s="5" t="s">
+      <c r="F794" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="795" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E795" s="7">
+      <c r="E795" s="6">
         <v>20181</v>
       </c>
-      <c r="F795" s="5" t="s">
+      <c r="F795" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="796" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E796" s="7">
+      <c r="E796" s="6">
         <v>17284</v>
       </c>
-      <c r="F796" s="5" t="s">
+      <c r="F796" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="797" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E797" s="7">
+      <c r="E797" s="6">
         <v>20872</v>
       </c>
-      <c r="F797" s="5" t="s">
+      <c r="F797" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="798" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E798" s="7">
+      <c r="E798" s="6">
         <v>21417</v>
       </c>
-      <c r="F798" s="5" t="s">
+      <c r="F798" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="799" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E799" s="7">
+      <c r="E799" s="6">
         <v>21482</v>
       </c>
-      <c r="F799" s="5" t="s">
+      <c r="F799" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="800" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E800" s="7">
+      <c r="E800" s="6">
         <v>21030</v>
       </c>
-      <c r="F800" s="5" t="s">
+      <c r="F800" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="801" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E801" s="7">
+      <c r="E801" s="6">
         <v>20569</v>
       </c>
-      <c r="F801" s="5" t="s">
+      <c r="F801" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="802" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E802" s="7">
+      <c r="E802" s="6">
         <v>21362</v>
       </c>
-      <c r="F802" s="5" t="s">
+      <c r="F802" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="803" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E803" s="7">
+      <c r="E803" s="6">
         <v>17251</v>
       </c>
-      <c r="F803" s="5" t="s">
+      <c r="F803" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="804" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E804" s="7">
+      <c r="E804" s="6">
         <v>21420</v>
       </c>
-      <c r="F804" s="5" t="s">
+      <c r="F804" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="805" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E805" s="7">
+      <c r="E805" s="6">
         <v>21435</v>
       </c>
-      <c r="F805" s="5" t="s">
+      <c r="F805" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="806" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E806" s="7">
+      <c r="E806" s="6">
         <v>21423</v>
       </c>
-      <c r="F806" s="5" t="s">
+      <c r="F806" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="807" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E807" s="7">
+      <c r="E807" s="6">
         <v>20651</v>
       </c>
-      <c r="F807" s="5" t="s">
+      <c r="F807" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="808" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E808" s="7">
+      <c r="E808" s="6">
         <v>21598</v>
       </c>
-      <c r="F808" s="5" t="s">
+      <c r="F808" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7000,277 +6997,277 @@
       <c r="D811" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F811" s="5" t="s">
+      <c r="F811" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="812" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E812" s="7">
+      <c r="E812" s="6">
         <v>20934</v>
       </c>
-      <c r="F812" s="5" t="s">
+      <c r="F812" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="813" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E813" s="7">
+      <c r="E813" s="6">
         <v>17251</v>
       </c>
-      <c r="F813" s="5" t="s">
+      <c r="F813" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="814" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E814" s="7">
+      <c r="E814" s="6">
         <v>20651</v>
       </c>
-      <c r="F814" s="5" t="s">
+      <c r="F814" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="815" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E815" s="7">
+      <c r="E815" s="6">
         <v>20919</v>
       </c>
-      <c r="F815" s="5" t="s">
+      <c r="F815" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="816" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E816" s="7">
+      <c r="E816" s="6">
         <v>20816</v>
       </c>
-      <c r="F816" s="5" t="s">
+      <c r="F816" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="817" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E817" s="7">
+      <c r="E817" s="6">
         <v>17251</v>
       </c>
-      <c r="F817" s="5" t="s">
+      <c r="F817" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="818" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E818" s="7">
+      <c r="E818" s="6">
         <v>20933</v>
       </c>
-      <c r="F818" s="5" t="s">
+      <c r="F818" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="819" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E819" s="7">
+      <c r="E819" s="6">
         <v>20241</v>
       </c>
-      <c r="F819" s="5" t="s">
+      <c r="F819" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="820" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E820" s="7">
+      <c r="E820" s="6">
         <v>20690</v>
       </c>
-      <c r="F820" s="5" t="s">
+      <c r="F820" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="821" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E821" s="7">
+      <c r="E821" s="6">
         <v>20388</v>
       </c>
-      <c r="F821" s="5" t="s">
+      <c r="F821" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="822" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E822" s="7">
+      <c r="E822" s="6">
         <v>21616</v>
       </c>
-      <c r="F822" s="5" t="s">
+      <c r="F822" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="823" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E823" s="7">
+      <c r="E823" s="6">
         <v>21361</v>
       </c>
-      <c r="F823" s="5" t="s">
+      <c r="F823" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="824" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E824" s="7">
+      <c r="E824" s="6">
         <v>21519</v>
       </c>
-      <c r="F824" s="5" t="s">
+      <c r="F824" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="825" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E825" s="7">
+      <c r="E825" s="6">
         <v>17992</v>
       </c>
-      <c r="F825" s="5" t="s">
+      <c r="F825" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="826" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E826" s="7">
+      <c r="E826" s="6">
         <v>21421</v>
       </c>
-      <c r="F826" s="5" t="s">
+      <c r="F826" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="827" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E827" s="7">
+      <c r="E827" s="6">
         <v>20708</v>
       </c>
-      <c r="F827" s="5" t="s">
+      <c r="F827" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="828" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E828" s="7">
+      <c r="E828" s="6">
         <v>17284</v>
       </c>
-      <c r="F828" s="5" t="s">
+      <c r="F828" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="829" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E829" s="7">
+      <c r="E829" s="6">
         <v>20387</v>
       </c>
-      <c r="F829" s="5" t="s">
+      <c r="F829" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="830" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E830" s="7">
+      <c r="E830" s="6">
         <v>20589</v>
       </c>
-      <c r="F830" s="5" t="s">
+      <c r="F830" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="831" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E831" s="7">
+      <c r="E831" s="6">
         <v>19964</v>
       </c>
-      <c r="F831" s="5" t="s">
+      <c r="F831" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="832" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E832" s="7">
+      <c r="E832" s="6">
         <v>21592</v>
       </c>
-      <c r="F832" s="5" t="s">
+      <c r="F832" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="833" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E833" s="7">
+      <c r="E833" s="6">
         <v>20181</v>
       </c>
-      <c r="F833" s="5" t="s">
+      <c r="F833" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="834" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E834" s="7">
+      <c r="E834" s="6">
         <v>21305</v>
       </c>
-      <c r="F834" s="5" t="s">
+      <c r="F834" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="835" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E835" s="7">
+      <c r="E835" s="6">
         <v>21539</v>
       </c>
-      <c r="F835" s="5" t="s">
+      <c r="F835" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="836" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E836" s="7">
+      <c r="E836" s="6">
         <v>21496</v>
       </c>
-      <c r="F836" s="5" t="s">
+      <c r="F836" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="837" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E837" s="7">
+      <c r="E837" s="6">
         <v>21482</v>
       </c>
-      <c r="F837" s="5" t="s">
+      <c r="F837" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="838" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E838" s="7">
+      <c r="E838" s="6">
         <v>21525</v>
       </c>
-      <c r="F838" s="5" t="s">
+      <c r="F838" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="839" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E839" s="7">
+      <c r="E839" s="6">
         <v>20496</v>
       </c>
-      <c r="F839" s="5" t="s">
+      <c r="F839" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="840" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E840" s="7">
+      <c r="E840" s="6">
         <v>17472</v>
       </c>
-      <c r="F840" s="5" t="s">
+      <c r="F840" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="841" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E841" s="7"/>
+      <c r="E841" s="6"/>
     </row>
     <row r="842" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E842" s="7"/>
+      <c r="E842" s="6"/>
     </row>
     <row r="843" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E843" s="7"/>
+      <c r="E843" s="6"/>
     </row>
     <row r="844" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E844" s="7"/>
+      <c r="E844" s="6"/>
     </row>
     <row r="845" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E845" s="7"/>
-      <c r="F845" s="10" t="s">
+      <c r="E845" s="6"/>
+      <c r="F845" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="846" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E846" s="7"/>
+      <c r="E846" s="6"/>
     </row>
     <row r="847" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E847" s="7"/>
+      <c r="E847" s="6"/>
     </row>
     <row r="848" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E848" s="7"/>
+      <c r="E848" s="6"/>
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E849" s="7"/>
+      <c r="E849" s="6"/>
     </row>
     <row r="850" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E850" s="7"/>
+      <c r="E850" s="6"/>
     </row>
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E851" s="7"/>
+      <c r="E851" s="6"/>
     </row>
     <row r="852" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B852" t="s">
@@ -7282,26 +7279,26 @@
       <c r="D852" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F852" s="5" t="s">
+      <c r="F852" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="853" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E853" s="8">
+      <c r="E853" s="7">
         <v>50007</v>
       </c>
-      <c r="F853" s="9" t="s">
+      <c r="F853" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="854" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E854" s="7"/>
+      <c r="E854" s="6"/>
     </row>
     <row r="855" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E855" s="7"/>
+      <c r="E855" s="6"/>
     </row>
     <row r="856" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E856" s="7"/>
+      <c r="E856" s="6"/>
     </row>
     <row r="859" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B859" t="s">
@@ -7313,247 +7310,247 @@
       <c r="D859" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F859" s="5" t="s">
+      <c r="F859" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="860" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E860" s="7">
+      <c r="E860" s="6">
         <v>20932</v>
       </c>
-      <c r="F860" s="5" t="s">
+      <c r="F860" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="861" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E861" s="7">
+      <c r="E861" s="6">
         <v>21420</v>
       </c>
-      <c r="F861" s="5" t="s">
+      <c r="F861" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="862" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E862" s="7">
+      <c r="E862" s="6">
         <v>21438</v>
       </c>
-      <c r="F862" s="5" t="s">
+      <c r="F862" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="863" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E863" s="7">
+      <c r="E863" s="6">
         <v>20927</v>
       </c>
-      <c r="F863" s="5" t="s">
+      <c r="F863" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="864" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E864" s="7">
+      <c r="E864" s="6">
         <v>20955</v>
       </c>
-      <c r="F864" s="5" t="s">
+      <c r="F864" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="865" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E865" s="7">
+      <c r="E865" s="6">
         <v>20882</v>
       </c>
-      <c r="F865" s="5" t="s">
+      <c r="F865" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="866" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E866" s="7">
+      <c r="E866" s="6">
         <v>21539</v>
       </c>
-      <c r="F866" s="5" t="s">
+      <c r="F866" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="867" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E867" s="7">
+      <c r="E867" s="6">
         <v>21435</v>
       </c>
-      <c r="F867" s="5" t="s">
+      <c r="F867" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="868" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E868" s="7">
+      <c r="E868" s="6">
         <v>19964</v>
       </c>
-      <c r="F868" s="5" t="s">
+      <c r="F868" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="869" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E869" s="7">
+      <c r="E869" s="6">
         <v>20890</v>
       </c>
-      <c r="F869" s="5" t="s">
+      <c r="F869" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="870" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E870" s="7">
+      <c r="E870" s="6">
         <v>18555</v>
       </c>
-      <c r="F870" s="5" t="s">
+      <c r="F870" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="871" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E871" s="7">
+      <c r="E871" s="6">
         <v>21519</v>
       </c>
-      <c r="F871" s="5" t="s">
+      <c r="F871" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="872" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E872" s="7">
+      <c r="E872" s="6">
         <v>20890</v>
       </c>
-      <c r="F872" s="5" t="s">
+      <c r="F872" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="873" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E873" s="7">
+      <c r="E873" s="6">
         <v>21616</v>
       </c>
-      <c r="F873" s="5" t="s">
+      <c r="F873" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="874" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E874" s="7">
+      <c r="E874" s="6">
         <v>21033</v>
       </c>
-      <c r="F874" s="5" t="s">
+      <c r="F874" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="875" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E875" s="7">
+      <c r="E875" s="6">
         <v>17992</v>
       </c>
-      <c r="F875" s="5" t="s">
+      <c r="F875" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="876" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E876" s="7">
+      <c r="E876" s="6">
         <v>21525</v>
       </c>
-      <c r="F876" s="5" t="s">
+      <c r="F876" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="877" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E877" s="7">
+      <c r="E877" s="6">
         <v>21362</v>
       </c>
-      <c r="F877" s="5" t="s">
+      <c r="F877" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="878" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E878" s="7">
+      <c r="E878" s="6">
         <v>20588</v>
       </c>
-      <c r="F878" s="5" t="s">
+      <c r="F878" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="879" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E879" s="7">
+      <c r="E879" s="6">
         <v>20919</v>
       </c>
-      <c r="F879" s="5" t="s">
+      <c r="F879" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="880" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E880" s="7">
+      <c r="E880" s="6">
         <v>21090</v>
       </c>
-      <c r="F880" s="5" t="s">
+      <c r="F880" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="881" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E881" s="7">
+      <c r="E881" s="6">
         <v>20241</v>
       </c>
-      <c r="F881" s="5" t="s">
+      <c r="F881" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="882" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E882" s="7">
+      <c r="E882" s="6">
         <v>20496</v>
       </c>
-      <c r="F882" s="5" t="s">
+      <c r="F882" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="883" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E883" s="7">
+      <c r="E883" s="6">
         <v>21588</v>
       </c>
-      <c r="F883" s="5" t="s">
+      <c r="F883" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="884" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E884" s="7">
+      <c r="E884" s="6">
         <v>20387</v>
       </c>
-      <c r="F884" s="5" t="s">
+      <c r="F884" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="885" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E885" s="7">
+      <c r="E885" s="6">
         <v>20882</v>
       </c>
-      <c r="F885" s="5" t="s">
+      <c r="F885" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="886" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E886" s="7">
+      <c r="E886" s="6">
         <v>21600</v>
       </c>
-      <c r="F886" s="5" t="s">
+      <c r="F886" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="887" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E887" s="7">
+      <c r="E887" s="6">
         <v>21033</v>
       </c>
-      <c r="F887" s="5" t="s">
+      <c r="F887" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="888" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E888" s="7">
+      <c r="E888" s="6">
         <v>21482</v>
       </c>
-      <c r="F888" s="5" t="s">
+      <c r="F888" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="889" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E889" s="7">
+      <c r="E889" s="6">
         <v>18482</v>
       </c>
-      <c r="F889" s="5" t="s">
+      <c r="F889" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7567,234 +7564,234 @@
       <c r="D892" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F892" s="5" t="s">
+      <c r="F892" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="893" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E893" s="7">
+      <c r="E893" s="6">
         <v>21430</v>
       </c>
-      <c r="F893" s="5" t="s">
+      <c r="F893" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="894" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E894" s="7">
+      <c r="E894" s="6">
         <v>21097</v>
       </c>
-      <c r="F894" s="5" t="s">
+      <c r="F894" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G894" s="5" t="s">
+      <c r="G894" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="895" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E895" s="7">
+      <c r="E895" s="6">
         <v>20890</v>
       </c>
-      <c r="F895" s="5" t="s">
+      <c r="F895" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="896" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E896" s="7">
+      <c r="E896" s="6">
         <v>20957</v>
       </c>
-      <c r="F896" s="5" t="s">
+      <c r="F896" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="897" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E897" s="7">
+      <c r="E897" s="6">
         <v>21033</v>
       </c>
-      <c r="F897" s="5" t="s">
+      <c r="F897" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="898" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E898" s="7">
+      <c r="E898" s="6">
         <v>21431</v>
       </c>
-      <c r="F898" s="5" t="s">
+      <c r="F898" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="899" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E899" s="7">
+      <c r="E899" s="6">
         <v>20894</v>
       </c>
-      <c r="F899" s="5" t="s">
+      <c r="F899" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="900" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E900" s="7">
+      <c r="E900" s="6">
         <v>20873</v>
       </c>
-      <c r="F900" s="5" t="s">
+      <c r="F900" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="901" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E901" s="7">
+      <c r="E901" s="6">
         <v>21439</v>
       </c>
-      <c r="F901" s="5" t="s">
+      <c r="F901" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="902" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E902" s="7">
+      <c r="E902" s="6">
         <v>20880</v>
       </c>
-      <c r="F902" s="5" t="s">
+      <c r="F902" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="903" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E903" s="7">
+      <c r="E903" s="6">
         <v>17251</v>
       </c>
-      <c r="F903" s="5" t="s">
+      <c r="F903" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="904" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E904" s="7">
+      <c r="E904" s="6">
         <v>20882</v>
       </c>
-      <c r="F904" s="5" t="s">
+      <c r="F904" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="905" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E905" s="7">
+      <c r="E905" s="6">
         <v>20388</v>
       </c>
-      <c r="F905" s="5" t="s">
+      <c r="F905" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="906" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E906" s="7">
+      <c r="E906" s="6">
         <v>21086</v>
       </c>
-      <c r="F906" s="5" t="s">
+      <c r="F906" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="907" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E907" s="7">
+      <c r="E907" s="6">
         <v>18729</v>
       </c>
-      <c r="F907" s="5" t="s">
+      <c r="F907" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="908" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E908" s="7">
+      <c r="E908" s="6">
         <v>21420</v>
       </c>
-      <c r="F908" s="5" t="s">
+      <c r="F908" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="909" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E909" s="7">
+      <c r="E909" s="6">
         <v>18484</v>
       </c>
-      <c r="F909" s="5" t="s">
+      <c r="F909" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="910" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E910" s="7">
+      <c r="E910" s="6">
         <v>20379</v>
       </c>
-      <c r="F910" s="5" t="s">
+      <c r="F910" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="911" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E911" s="7">
+      <c r="E911" s="6">
         <v>20888</v>
       </c>
-      <c r="F911" s="5" t="s">
+      <c r="F911" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="912" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E912" s="7">
+      <c r="E912" s="6">
         <v>20589</v>
       </c>
-      <c r="F912" s="5" t="s">
+      <c r="F912" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="913" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E913" s="7">
+      <c r="E913" s="6">
         <v>20888</v>
       </c>
-      <c r="F913" s="5" t="s">
+      <c r="F913" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="914" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E914" s="7">
+      <c r="E914" s="6">
         <v>20874</v>
       </c>
-      <c r="F914" s="5" t="s">
+      <c r="F914" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="915" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E915" s="7">
+      <c r="E915" s="6">
         <v>21361</v>
       </c>
-      <c r="F915" s="5" t="s">
+      <c r="F915" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="916" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E916" s="7">
+      <c r="E916" s="6">
         <v>17472</v>
       </c>
-      <c r="F916" s="5" t="s">
+      <c r="F916" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="917" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E917" s="7"/>
+      <c r="E917" s="6"/>
     </row>
     <row r="918" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E918" s="7"/>
+      <c r="E918" s="6"/>
     </row>
     <row r="919" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E919" s="7"/>
+      <c r="E919" s="6"/>
     </row>
     <row r="920" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E920" s="7"/>
+      <c r="E920" s="6"/>
     </row>
     <row r="921" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E921" s="7"/>
-      <c r="F921" s="10" t="s">
+      <c r="E921" s="6"/>
+      <c r="F921" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="922" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E922" s="7"/>
+      <c r="E922" s="6"/>
     </row>
     <row r="923" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E923" s="7"/>
+      <c r="E923" s="6"/>
     </row>
     <row r="924" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E924" s="7"/>
+      <c r="E924" s="6"/>
     </row>
     <row r="925" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E925" s="7"/>
+      <c r="E925" s="6"/>
     </row>
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" t="s">
@@ -7806,20 +7803,20 @@
       <c r="D927" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F927" s="5" t="s">
+      <c r="F927" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="928" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E928" s="8">
+      <c r="E928" s="7">
         <v>50006</v>
       </c>
-      <c r="F928" s="9" t="s">
+      <c r="F928" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="929" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E929" s="7"/>
+      <c r="E929" s="6"/>
     </row>
     <row r="932" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B932" t="s">
@@ -7831,63 +7828,63 @@
       <c r="D932" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F932" s="5" t="s">
+      <c r="F932" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="933" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E933" s="7">
+      <c r="E933" s="6">
         <v>20894</v>
       </c>
-      <c r="F933" s="5" t="s">
+      <c r="F933" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="934" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E934" s="7">
+      <c r="E934" s="6">
         <v>20589</v>
       </c>
-      <c r="F934" s="5" t="s">
+      <c r="F934" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="935" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E935" s="7">
+      <c r="E935" s="6">
         <v>20888</v>
       </c>
-      <c r="F935" s="5" t="s">
+      <c r="F935" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="936" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E936" s="7">
+      <c r="E936" s="6">
         <v>21523</v>
       </c>
-      <c r="F936" s="5" t="s">
+      <c r="F936" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="937" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E937" s="7">
+      <c r="E937" s="6">
         <v>21033</v>
       </c>
-      <c r="F937" s="5" t="s">
+      <c r="F937" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="938" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E938" s="7">
+      <c r="E938" s="6">
         <v>20589</v>
       </c>
-      <c r="F938" s="5" t="s">
+      <c r="F938" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="939" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E939" s="7">
+      <c r="E939" s="6">
         <v>20882</v>
       </c>
-      <c r="F939" s="5" t="s">
+      <c r="F939" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7901,39 +7898,39 @@
       <c r="D942" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F942" s="5" t="s">
+      <c r="F942" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="943" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E943" s="7">
+      <c r="E943" s="6">
         <v>20882</v>
       </c>
-      <c r="F943" s="5" t="s">
+      <c r="F943" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="944" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E944" s="7">
+      <c r="E944" s="6">
         <v>20588</v>
       </c>
-      <c r="F944" s="5" t="s">
+      <c r="F944" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="945" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E945" s="7">
+      <c r="E945" s="6">
         <v>21033</v>
       </c>
-      <c r="F945" s="5" t="s">
+      <c r="F945" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="946" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E946" s="7">
+      <c r="E946" s="6">
         <v>20890</v>
       </c>
-      <c r="F946" s="5" t="s">
+      <c r="F946" s="4" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7947,47 +7944,47 @@
       <c r="D949" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F949" s="5" t="s">
+      <c r="F949" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="950" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E950" s="7">
+      <c r="E950" s="6">
         <v>20882</v>
       </c>
-      <c r="F950" s="5" t="s">
+      <c r="F950" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="951" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E951" s="7">
+      <c r="E951" s="6">
         <v>20589</v>
       </c>
-      <c r="F951" s="5" t="s">
+      <c r="F951" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="952" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E952" s="7">
+      <c r="E952" s="6">
         <v>20894</v>
       </c>
-      <c r="F952" s="5" t="s">
+      <c r="F952" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="953" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E953" s="7">
+      <c r="E953" s="6">
         <v>20890</v>
       </c>
-      <c r="F953" s="5" t="s">
+      <c r="F953" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="954" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E954" s="7">
+      <c r="E954" s="6">
         <v>21033</v>
       </c>
-      <c r="F954" s="5" t="s">
+      <c r="F954" s="4" t="s">
         <v>196</v>
       </c>
     </row>
